--- a/data-raw/data/Diplome.xlsx
+++ b/data-raw/data/Diplome.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12281" uniqueCount="4879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12301" uniqueCount="4887">
   <si>
     <t>Diplôme (code)</t>
   </si>
@@ -11160,6 +11160,12 @@
     <t>DU SOINS CRIT. INFIRMIERS</t>
   </si>
   <si>
+    <t>PUSGE</t>
+  </si>
+  <si>
+    <t>DU SANTE GENESIQUE</t>
+  </si>
+  <si>
     <t>PUSOS</t>
   </si>
   <si>
@@ -11268,6 +11274,12 @@
     <t>DE Infirm.</t>
   </si>
   <si>
+    <t>RIPA20</t>
+  </si>
+  <si>
+    <t>DE INFIRM PRATIQ AVANCEES</t>
+  </si>
+  <si>
     <t>RIUMG</t>
   </si>
   <si>
@@ -12186,6 +12198,12 @@
     <t>DU PEDAGOGIE EN SANTE</t>
   </si>
   <si>
+    <t>RUPHP</t>
+  </si>
+  <si>
+    <t>DIU PHILOSPHIE DE LA PSY</t>
+  </si>
+  <si>
     <t>RUPLFC</t>
   </si>
   <si>
@@ -12232,6 +12250,12 @@
   </si>
   <si>
     <t>DU PSYCHIATRIE SUJET AGE</t>
+  </si>
+  <si>
+    <t>RUPSL</t>
+  </si>
+  <si>
+    <t>DIU PSYCHOPATHOLOGIE LEG</t>
   </si>
   <si>
     <t>RURBD0</t>
@@ -14763,7 +14787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2419"/>
+  <dimension ref="A1:F2423"/>
   <cols>
     <col min="1" max="1" width="21.3903986666667" customWidth="1"/>
     <col min="2" max="6" width="10.7163133333333" customWidth="1"/>
@@ -47130,7 +47154,7 @@
         <v>3719</v>
       </c>
       <c r="D1905" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1905" s="3" t="s">
         <v>675</v>
@@ -47147,7 +47171,7 @@
         <v>3721</v>
       </c>
       <c r="D1906" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E1906" s="4" t="s">
         <v>675</v>
@@ -47181,13 +47205,13 @@
         <v>3725</v>
       </c>
       <c r="D1908" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1908" s="4" t="s">
-        <v>2551</v>
+        <v>675</v>
       </c>
       <c r="F1908" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1909" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47201,10 +47225,10 @@
         <v>7</v>
       </c>
       <c r="E1909" s="3" t="s">
-        <v>8</v>
+        <v>2551</v>
       </c>
       <c r="F1909" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1910" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47252,7 +47276,7 @@
         <v>7</v>
       </c>
       <c r="E1912" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F1912" s="4" t="s">
         <v>9</v>
@@ -47280,13 +47304,13 @@
         <v>3736</v>
       </c>
       <c r="C1914" s="4" t="s">
-        <v>1003</v>
+        <v>3737</v>
       </c>
       <c r="D1914" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1914" s="4" t="s">
-        <v>1004</v>
+        <v>24</v>
       </c>
       <c r="F1914" s="4" t="s">
         <v>9</v>
@@ -47294,53 +47318,53 @@
     </row>
     <row r="1915" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1915" s="3" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="C1915" s="3" t="s">
-        <v>3738</v>
+        <v>1003</v>
       </c>
       <c r="D1915" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1915" s="3" t="s">
-        <v>3739</v>
+        <v>1004</v>
       </c>
       <c r="F1915" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1916" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1916" s="4" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C1916" s="4" t="s">
         <v>3740</v>
       </c>
-      <c r="C1916" s="4" t="s">
-        <v>3514</v>
-      </c>
       <c r="D1916" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1916" s="4" t="s">
-        <v>1018</v>
+        <v>3741</v>
       </c>
       <c r="F1916" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1917" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1917" s="3" t="s">
-        <v>3741</v>
+        <v>3742</v>
       </c>
       <c r="C1917" s="3" t="s">
-        <v>3742</v>
+        <v>3514</v>
       </c>
       <c r="D1917" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1917" s="3" t="s">
-        <v>24</v>
+        <v>1018</v>
       </c>
       <c r="F1917" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1918" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47357,7 +47381,7 @@
         <v>24</v>
       </c>
       <c r="F1918" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1919" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47374,7 +47398,7 @@
         <v>24</v>
       </c>
       <c r="F1919" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1920" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47405,7 +47429,7 @@
         <v>7</v>
       </c>
       <c r="E1921" s="3" t="s">
-        <v>3751</v>
+        <v>24</v>
       </c>
       <c r="F1921" s="3" t="s">
         <v>68</v>
@@ -47413,19 +47437,19 @@
     </row>
     <row r="1922" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1922" s="4" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C1922" s="4" t="s">
         <v>3752</v>
       </c>
-      <c r="C1922" s="4" t="s">
+      <c r="D1922" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1922" s="4" t="s">
         <v>3753</v>
       </c>
-      <c r="D1922" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1922" s="4" t="s">
-        <v>675</v>
-      </c>
       <c r="F1922" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1923" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47436,13 +47460,13 @@
         <v>3755</v>
       </c>
       <c r="D1923" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1923" s="3" t="s">
-        <v>675</v>
+        <v>3753</v>
       </c>
       <c r="F1923" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1924" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47470,10 +47494,10 @@
         <v>3759</v>
       </c>
       <c r="D1925" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1925" s="3" t="s">
-        <v>1004</v>
+        <v>675</v>
       </c>
       <c r="F1925" s="3" t="s">
         <v>9</v>
@@ -47487,47 +47511,47 @@
         <v>3761</v>
       </c>
       <c r="D1926" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1926" s="4" t="s">
-        <v>3762</v>
+        <v>675</v>
       </c>
       <c r="F1926" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1927" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1927" s="3" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C1927" s="3" t="s">
         <v>3763</v>
       </c>
-      <c r="C1927" s="3" t="s">
-        <v>3764</v>
-      </c>
       <c r="D1927" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1927" s="3" t="s">
-        <v>3762</v>
+        <v>1004</v>
       </c>
       <c r="F1927" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1928" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1928" s="4" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C1928" s="4" t="s">
         <v>3765</v>
       </c>
-      <c r="C1928" s="4" t="s">
+      <c r="D1928" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1928" s="4" t="s">
         <v>3766</v>
       </c>
-      <c r="D1928" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1928" s="4" t="s">
-        <v>3762</v>
-      </c>
       <c r="F1928" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1929" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47541,7 +47565,7 @@
         <v>7</v>
       </c>
       <c r="E1929" s="3" t="s">
-        <v>3762</v>
+        <v>3766</v>
       </c>
       <c r="F1929" s="3" t="s">
         <v>68</v>
@@ -47552,50 +47576,50 @@
         <v>3769</v>
       </c>
       <c r="C1930" s="4" t="s">
-        <v>3514</v>
+        <v>3770</v>
       </c>
       <c r="D1930" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1930" s="4" t="s">
-        <v>1018</v>
+        <v>3766</v>
       </c>
       <c r="F1930" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1931" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1931" s="3" t="s">
-        <v>3770</v>
+        <v>3771</v>
       </c>
       <c r="C1931" s="3" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="D1931" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1931" s="3" t="s">
-        <v>3751</v>
+        <v>3766</v>
       </c>
       <c r="F1931" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1932" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1932" s="4" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="C1932" s="4" t="s">
-        <v>3773</v>
+        <v>3514</v>
       </c>
       <c r="D1932" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1932" s="4" t="s">
-        <v>2424</v>
+        <v>1018</v>
       </c>
       <c r="F1932" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1933" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47609,10 +47633,10 @@
         <v>7</v>
       </c>
       <c r="E1933" s="3" t="s">
-        <v>107</v>
+        <v>3753</v>
       </c>
       <c r="F1933" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1934" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47626,10 +47650,10 @@
         <v>7</v>
       </c>
       <c r="E1934" s="4" t="s">
-        <v>107</v>
+        <v>2424</v>
       </c>
       <c r="F1934" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1935" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47677,10 +47701,10 @@
         <v>7</v>
       </c>
       <c r="E1937" s="3" t="s">
-        <v>1004</v>
+        <v>107</v>
       </c>
       <c r="F1937" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1938" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47694,7 +47718,7 @@
         <v>7</v>
       </c>
       <c r="E1938" s="4" t="s">
-        <v>1018</v>
+        <v>107</v>
       </c>
       <c r="F1938" s="4" t="s">
         <v>68</v>
@@ -47711,10 +47735,10 @@
         <v>7</v>
       </c>
       <c r="E1939" s="3" t="s">
-        <v>3739</v>
+        <v>1004</v>
       </c>
       <c r="F1939" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1940" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47722,13 +47746,13 @@
         <v>3788</v>
       </c>
       <c r="C1940" s="4" t="s">
-        <v>3787</v>
+        <v>3789</v>
       </c>
       <c r="D1940" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1940" s="4" t="s">
-        <v>3739</v>
+        <v>1018</v>
       </c>
       <c r="F1940" s="4" t="s">
         <v>68</v>
@@ -47736,36 +47760,36 @@
     </row>
     <row r="1941" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1941" s="3" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="C1941" s="3" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="D1941" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1941" s="3" t="s">
-        <v>1031</v>
+        <v>3741</v>
       </c>
       <c r="F1941" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1942" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1942" s="4" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C1942" s="4" t="s">
         <v>3791</v>
       </c>
-      <c r="C1942" s="4" t="s">
-        <v>3792</v>
-      </c>
       <c r="D1942" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1942" s="4" t="s">
-        <v>1018</v>
+        <v>3741</v>
       </c>
       <c r="F1942" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1943" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47773,13 +47797,13 @@
         <v>3793</v>
       </c>
       <c r="C1943" s="3" t="s">
-        <v>3581</v>
+        <v>3794</v>
       </c>
       <c r="D1943" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1943" s="3" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="F1943" s="3" t="s">
         <v>9</v>
@@ -47787,16 +47811,16 @@
     </row>
     <row r="1944" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1944" s="4" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="C1944" s="4" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="D1944" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1944" s="4" t="s">
-        <v>3796</v>
+        <v>1018</v>
       </c>
       <c r="F1944" s="4" t="s">
         <v>9</v>
@@ -47807,13 +47831,13 @@
         <v>3797</v>
       </c>
       <c r="C1945" s="3" t="s">
-        <v>3798</v>
+        <v>3581</v>
       </c>
       <c r="D1945" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1945" s="3" t="s">
-        <v>2424</v>
+        <v>1018</v>
       </c>
       <c r="F1945" s="3" t="s">
         <v>9</v>
@@ -47821,16 +47845,16 @@
     </row>
     <row r="1946" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1946" s="4" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C1946" s="4" t="s">
         <v>3799</v>
       </c>
-      <c r="C1946" s="4" t="s">
+      <c r="D1946" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1946" s="4" t="s">
         <v>3800</v>
-      </c>
-      <c r="D1946" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1946" s="4" t="s">
-        <v>2424</v>
       </c>
       <c r="F1946" s="4" t="s">
         <v>9</v>
@@ -47864,7 +47888,7 @@
         <v>7</v>
       </c>
       <c r="E1948" s="4" t="s">
-        <v>24</v>
+        <v>2424</v>
       </c>
       <c r="F1948" s="4" t="s">
         <v>9</v>
@@ -47898,7 +47922,7 @@
         <v>7</v>
       </c>
       <c r="E1950" s="4" t="s">
-        <v>2424</v>
+        <v>24</v>
       </c>
       <c r="F1950" s="4" t="s">
         <v>9</v>
@@ -47977,13 +48001,13 @@
         <v>3817</v>
       </c>
       <c r="C1955" s="3" t="s">
-        <v>3735</v>
+        <v>3818</v>
       </c>
       <c r="D1955" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1955" s="3" t="s">
-        <v>24</v>
+        <v>2424</v>
       </c>
       <c r="F1955" s="3" t="s">
         <v>9</v>
@@ -47991,16 +48015,16 @@
     </row>
     <row r="1956" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1956" s="4" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
       <c r="C1956" s="4" t="s">
-        <v>3792</v>
+        <v>3820</v>
       </c>
       <c r="D1956" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1956" s="4" t="s">
-        <v>1018</v>
+        <v>2424</v>
       </c>
       <c r="F1956" s="4" t="s">
         <v>9</v>
@@ -48008,16 +48032,16 @@
     </row>
     <row r="1957" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1957" s="3" t="s">
-        <v>3819</v>
+        <v>3821</v>
       </c>
       <c r="C1957" s="3" t="s">
-        <v>3820</v>
+        <v>3737</v>
       </c>
       <c r="D1957" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1957" s="3" t="s">
-        <v>675</v>
+        <v>24</v>
       </c>
       <c r="F1957" s="3" t="s">
         <v>9</v>
@@ -48025,16 +48049,16 @@
     </row>
     <row r="1958" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1958" s="4" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
       <c r="C1958" s="4" t="s">
-        <v>3822</v>
+        <v>3796</v>
       </c>
       <c r="D1958" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1958" s="4" t="s">
-        <v>675</v>
+        <v>1018</v>
       </c>
       <c r="F1958" s="4" t="s">
         <v>9</v>
@@ -48105,7 +48129,7 @@
         <v>675</v>
       </c>
       <c r="F1962" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1963" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -48139,7 +48163,7 @@
         <v>675</v>
       </c>
       <c r="F1964" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1965" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -48150,7 +48174,7 @@
         <v>3836</v>
       </c>
       <c r="D1965" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1965" s="3" t="s">
         <v>675</v>
@@ -48184,13 +48208,13 @@
         <v>3840</v>
       </c>
       <c r="D1967" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E1967" s="3" t="s">
         <v>675</v>
       </c>
       <c r="F1967" s="3" t="s">
-        <v>1025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1968" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -48224,7 +48248,7 @@
         <v>675</v>
       </c>
       <c r="F1969" s="3" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1970" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -48405,7 +48429,7 @@
         <v>3866</v>
       </c>
       <c r="D1980" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1980" s="4" t="s">
         <v>675</v>
@@ -48439,7 +48463,7 @@
         <v>3870</v>
       </c>
       <c r="D1982" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E1982" s="4" t="s">
         <v>675</v>
@@ -48725,7 +48749,7 @@
         <v>3903</v>
       </c>
       <c r="C1999" s="3" t="s">
-        <v>3898</v>
+        <v>3904</v>
       </c>
       <c r="D1999" s="3" t="s">
         <v>68</v>
@@ -48739,10 +48763,10 @@
     </row>
     <row r="2000" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2000" s="4" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="C2000" s="4" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="D2000" s="4" t="s">
         <v>68</v>
@@ -48756,10 +48780,10 @@
     </row>
     <row r="2001" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2001" s="3" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="C2001" s="3" t="s">
-        <v>3907</v>
+        <v>3902</v>
       </c>
       <c r="D2001" s="3" t="s">
         <v>68</v>
@@ -48983,13 +49007,13 @@
         <v>3933</v>
       </c>
       <c r="D2014" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2014" s="4" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F2014" s="4" t="s">
-        <v>1025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2015" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -49017,13 +49041,13 @@
         <v>3937</v>
       </c>
       <c r="D2016" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2016" s="4" t="s">
-        <v>675</v>
+        <v>1028</v>
       </c>
       <c r="F2016" s="4" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2017" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -49048,7 +49072,7 @@
         <v>3940</v>
       </c>
       <c r="C2018" s="4" t="s">
-        <v>3428</v>
+        <v>3941</v>
       </c>
       <c r="D2018" s="4" t="s">
         <v>68</v>
@@ -49062,10 +49086,10 @@
     </row>
     <row r="2019" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2019" s="3" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="C2019" s="3" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="D2019" s="3" t="s">
         <v>68</v>
@@ -49079,10 +49103,10 @@
     </row>
     <row r="2020" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2020" s="4" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="C2020" s="4" t="s">
-        <v>3944</v>
+        <v>3428</v>
       </c>
       <c r="D2020" s="4" t="s">
         <v>68</v>
@@ -49204,7 +49228,7 @@
         <v>3958</v>
       </c>
       <c r="D2027" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2027" s="3" t="s">
         <v>675</v>
@@ -49238,7 +49262,7 @@
         <v>3962</v>
       </c>
       <c r="D2029" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2029" s="3" t="s">
         <v>675</v>
@@ -49357,13 +49381,13 @@
         <v>3976</v>
       </c>
       <c r="D2036" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2036" s="4" t="s">
-        <v>193</v>
+        <v>675</v>
       </c>
       <c r="F2036" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2037" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -49391,13 +49415,13 @@
         <v>3980</v>
       </c>
       <c r="D2038" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2038" s="4" t="s">
-        <v>675</v>
+        <v>193</v>
       </c>
       <c r="F2038" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2039" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -49561,7 +49585,7 @@
         <v>4000</v>
       </c>
       <c r="D2048" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2048" s="4" t="s">
         <v>675</v>
@@ -49592,10 +49616,10 @@
         <v>4003</v>
       </c>
       <c r="C2050" s="4" t="s">
-        <v>3996</v>
+        <v>4004</v>
       </c>
       <c r="D2050" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2050" s="4" t="s">
         <v>675</v>
@@ -49606,10 +49630,10 @@
     </row>
     <row r="2051" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2051" s="3" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="C2051" s="3" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="D2051" s="3" t="s">
         <v>68</v>
@@ -49623,10 +49647,10 @@
     </row>
     <row r="2052" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2052" s="4" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="C2052" s="4" t="s">
-        <v>4007</v>
+        <v>4000</v>
       </c>
       <c r="D2052" s="4" t="s">
         <v>68</v>
@@ -49714,7 +49738,7 @@
         <v>4017</v>
       </c>
       <c r="D2057" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2057" s="3" t="s">
         <v>675</v>
@@ -49748,7 +49772,7 @@
         <v>4021</v>
       </c>
       <c r="D2059" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2059" s="3" t="s">
         <v>675</v>
@@ -50122,7 +50146,7 @@
         <v>4065</v>
       </c>
       <c r="D2081" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2081" s="3" t="s">
         <v>675</v>
@@ -50173,7 +50197,7 @@
         <v>4071</v>
       </c>
       <c r="D2084" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2084" s="4" t="s">
         <v>675</v>
@@ -50210,10 +50234,10 @@
         <v>68</v>
       </c>
       <c r="E2086" s="4" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F2086" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2087" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50278,10 +50302,10 @@
         <v>68</v>
       </c>
       <c r="E2090" s="4" t="s">
-        <v>675</v>
+        <v>1028</v>
       </c>
       <c r="F2090" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2091" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50315,7 +50339,7 @@
         <v>675</v>
       </c>
       <c r="F2092" s="4" t="s">
-        <v>1025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2093" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50383,7 +50407,7 @@
         <v>675</v>
       </c>
       <c r="F2096" s="4" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2097" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50547,7 +50571,7 @@
         <v>4115</v>
       </c>
       <c r="D2106" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2106" s="4" t="s">
         <v>675</v>
@@ -50564,13 +50588,13 @@
         <v>4117</v>
       </c>
       <c r="D2107" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2107" s="3" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F2107" s="3" t="s">
-        <v>1025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2108" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50598,7 +50622,7 @@
         <v>4121</v>
       </c>
       <c r="D2109" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2109" s="3" t="s">
         <v>675</v>
@@ -50615,7 +50639,7 @@
         <v>4123</v>
       </c>
       <c r="D2110" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2110" s="4" t="s">
         <v>675</v>
@@ -50632,13 +50656,13 @@
         <v>4125</v>
       </c>
       <c r="D2111" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2111" s="3" t="s">
-        <v>2551</v>
+        <v>1028</v>
       </c>
       <c r="F2111" s="3" t="s">
-        <v>68</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2112" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50649,13 +50673,13 @@
         <v>4127</v>
       </c>
       <c r="D2112" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2112" s="4" t="s">
-        <v>3762</v>
+        <v>675</v>
       </c>
       <c r="F2112" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2113" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50666,13 +50690,13 @@
         <v>4129</v>
       </c>
       <c r="D2113" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2113" s="3" t="s">
-        <v>3762</v>
+        <v>675</v>
       </c>
       <c r="F2113" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2114" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50683,13 +50707,13 @@
         <v>4131</v>
       </c>
       <c r="D2114" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2114" s="4" t="s">
-        <v>3762</v>
+        <v>675</v>
       </c>
       <c r="F2114" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2115" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50697,81 +50721,81 @@
         <v>4132</v>
       </c>
       <c r="C2115" s="3" t="s">
-        <v>1027</v>
+        <v>4133</v>
       </c>
       <c r="D2115" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2115" s="3" t="s">
-        <v>1028</v>
+        <v>2551</v>
       </c>
       <c r="F2115" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2116" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2116" s="4" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="C2116" s="4" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="D2116" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2116" s="4" t="s">
-        <v>8</v>
+        <v>3766</v>
       </c>
       <c r="F2116" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2117" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2117" s="3" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
       <c r="C2117" s="3" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="D2117" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2117" s="3" t="s">
-        <v>24</v>
+        <v>3766</v>
       </c>
       <c r="F2117" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2118" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2118" s="4" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="C2118" s="4" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
       <c r="D2118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2118" s="4" t="s">
-        <v>24</v>
+        <v>3766</v>
       </c>
       <c r="F2118" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2119" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2119" s="3" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="C2119" s="3" t="s">
-        <v>4140</v>
+        <v>1027</v>
       </c>
       <c r="D2119" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2119" s="3" t="s">
-        <v>1371</v>
+        <v>1028</v>
       </c>
       <c r="F2119" s="3" t="s">
         <v>7</v>
@@ -50782,64 +50806,64 @@
         <v>4141</v>
       </c>
       <c r="C2120" s="4" t="s">
-        <v>4140</v>
+        <v>4142</v>
       </c>
       <c r="D2120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2120" s="4" t="s">
-        <v>1371</v>
+        <v>8</v>
       </c>
       <c r="F2120" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2121" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2121" s="3" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="C2121" s="3" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="D2121" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2121" s="3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F2121" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2122" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2122" s="4" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="C2122" s="4" t="s">
-        <v>4143</v>
+        <v>4146</v>
       </c>
       <c r="D2122" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2122" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F2122" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2123" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2123" s="3" t="s">
-        <v>4145</v>
+        <v>4147</v>
       </c>
       <c r="C2123" s="3" t="s">
-        <v>4146</v>
+        <v>4148</v>
       </c>
       <c r="D2123" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2123" s="3" t="s">
-        <v>55</v>
+        <v>1371</v>
       </c>
       <c r="F2123" s="3" t="s">
         <v>7</v>
@@ -50847,7 +50871,7 @@
     </row>
     <row r="2124" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2124" s="4" t="s">
-        <v>4147</v>
+        <v>4149</v>
       </c>
       <c r="C2124" s="4" t="s">
         <v>4148</v>
@@ -50856,7 +50880,7 @@
         <v>7</v>
       </c>
       <c r="E2124" s="4" t="s">
-        <v>55</v>
+        <v>1371</v>
       </c>
       <c r="F2124" s="4" t="s">
         <v>7</v>
@@ -50864,10 +50888,10 @@
     </row>
     <row r="2125" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2125" s="3" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="C2125" s="3" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="D2125" s="3" t="s">
         <v>7</v>
@@ -50881,10 +50905,10 @@
     </row>
     <row r="2126" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2126" s="4" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C2126" s="4" t="s">
         <v>4151</v>
-      </c>
-      <c r="C2126" s="4" t="s">
-        <v>4152</v>
       </c>
       <c r="D2126" s="4" t="s">
         <v>7</v>
@@ -50918,13 +50942,13 @@
         <v>4155</v>
       </c>
       <c r="C2128" s="4" t="s">
-        <v>4140</v>
+        <v>4156</v>
       </c>
       <c r="D2128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2128" s="4" t="s">
-        <v>1371</v>
+        <v>55</v>
       </c>
       <c r="F2128" s="4" t="s">
         <v>7</v>
@@ -50932,10 +50956,10 @@
     </row>
     <row r="2129" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2129" s="3" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="C2129" s="3" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="D2129" s="3" t="s">
         <v>7</v>
@@ -50949,10 +50973,10 @@
     </row>
     <row r="2130" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2130" s="4" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="C2130" s="4" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="D2130" s="4" t="s">
         <v>7</v>
@@ -50966,10 +50990,10 @@
     </row>
     <row r="2131" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2131" s="3" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="C2131" s="3" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
       <c r="D2131" s="3" t="s">
         <v>7</v>
@@ -50983,16 +51007,16 @@
     </row>
     <row r="2132" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2132" s="4" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="C2132" s="4" t="s">
-        <v>4163</v>
+        <v>4148</v>
       </c>
       <c r="D2132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2132" s="4" t="s">
-        <v>362</v>
+        <v>1371</v>
       </c>
       <c r="F2132" s="4" t="s">
         <v>7</v>
@@ -51009,7 +51033,7 @@
         <v>7</v>
       </c>
       <c r="E2133" s="3" t="s">
-        <v>1374</v>
+        <v>55</v>
       </c>
       <c r="F2133" s="3" t="s">
         <v>7</v>
@@ -51037,13 +51061,13 @@
         <v>4168</v>
       </c>
       <c r="C2135" s="3" t="s">
-        <v>4163</v>
+        <v>4169</v>
       </c>
       <c r="D2135" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2135" s="3" t="s">
-        <v>362</v>
+        <v>55</v>
       </c>
       <c r="F2135" s="3" t="s">
         <v>7</v>
@@ -51051,16 +51075,16 @@
     </row>
     <row r="2136" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2136" s="4" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="C2136" s="4" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="D2136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2136" s="4" t="s">
-        <v>55</v>
+        <v>362</v>
       </c>
       <c r="F2136" s="4" t="s">
         <v>7</v>
@@ -51068,16 +51092,16 @@
     </row>
     <row r="2137" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2137" s="3" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="C2137" s="3" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="D2137" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2137" s="3" t="s">
-        <v>362</v>
+        <v>1374</v>
       </c>
       <c r="F2137" s="3" t="s">
         <v>7</v>
@@ -51085,16 +51109,16 @@
     </row>
     <row r="2138" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2138" s="4" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="C2138" s="4" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
       <c r="D2138" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2138" s="4" t="s">
-        <v>362</v>
+        <v>55</v>
       </c>
       <c r="F2138" s="4" t="s">
         <v>7</v>
@@ -51102,16 +51126,16 @@
     </row>
     <row r="2139" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2139" s="3" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="C2139" s="3" t="s">
-        <v>4176</v>
+        <v>4171</v>
       </c>
       <c r="D2139" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2139" s="3" t="s">
-        <v>1374</v>
+        <v>362</v>
       </c>
       <c r="F2139" s="3" t="s">
         <v>7</v>
@@ -51128,10 +51152,10 @@
         <v>7</v>
       </c>
       <c r="E2140" s="4" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="F2140" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2141" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51145,10 +51169,10 @@
         <v>7</v>
       </c>
       <c r="E2141" s="3" t="s">
-        <v>137</v>
+        <v>362</v>
       </c>
       <c r="F2141" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2142" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51162,10 +51186,10 @@
         <v>7</v>
       </c>
       <c r="E2142" s="4" t="s">
-        <v>137</v>
+        <v>362</v>
       </c>
       <c r="F2142" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2143" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51179,10 +51203,10 @@
         <v>7</v>
       </c>
       <c r="E2143" s="3" t="s">
-        <v>64</v>
+        <v>1374</v>
       </c>
       <c r="F2143" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2144" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51193,10 +51217,10 @@
         <v>4186</v>
       </c>
       <c r="D2144" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2144" s="4" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="F2144" s="4" t="s">
         <v>68</v>
@@ -51213,10 +51237,10 @@
         <v>7</v>
       </c>
       <c r="E2145" s="3" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="F2145" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2146" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51230,7 +51254,7 @@
         <v>7</v>
       </c>
       <c r="E2146" s="4" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="F2146" s="4" t="s">
         <v>68</v>
@@ -51247,10 +51271,10 @@
         <v>7</v>
       </c>
       <c r="E2147" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F2147" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2148" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51261,10 +51285,10 @@
         <v>4194</v>
       </c>
       <c r="D2148" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2148" s="4" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F2148" s="4" t="s">
         <v>68</v>
@@ -51335,7 +51359,7 @@
         <v>24</v>
       </c>
       <c r="F2152" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2153" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51349,10 +51373,10 @@
         <v>7</v>
       </c>
       <c r="E2153" s="3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F2153" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2154" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51369,7 +51393,7 @@
         <v>24</v>
       </c>
       <c r="F2154" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2155" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51383,7 +51407,7 @@
         <v>7</v>
       </c>
       <c r="E2155" s="3" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F2155" s="3" t="s">
         <v>68</v>
@@ -51394,58 +51418,58 @@
         <v>4209</v>
       </c>
       <c r="C2156" s="4" t="s">
-        <v>4208</v>
+        <v>4210</v>
       </c>
       <c r="D2156" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2156" s="4" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F2156" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2157" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2157" s="3" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="C2157" s="3" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="D2157" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2157" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F2157" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2158" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2158" s="4" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="C2158" s="4" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="D2158" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2158" s="4" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F2158" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2159" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2159" s="3" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="C2159" s="3" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="D2159" s="3" t="s">
         <v>7</v>
@@ -51454,15 +51478,15 @@
         <v>71</v>
       </c>
       <c r="F2159" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2160" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2160" s="4" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C2160" s="4" t="s">
         <v>4216</v>
-      </c>
-      <c r="C2160" s="4" t="s">
-        <v>4217</v>
       </c>
       <c r="D2160" s="4" t="s">
         <v>7</v>
@@ -51471,7 +51495,7 @@
         <v>71</v>
       </c>
       <c r="F2160" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2161" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51536,10 +51560,10 @@
         <v>7</v>
       </c>
       <c r="E2164" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2164" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2165" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51556,7 +51580,7 @@
         <v>71</v>
       </c>
       <c r="F2165" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2166" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51564,7 +51588,7 @@
         <v>4228</v>
       </c>
       <c r="C2166" s="4" t="s">
-        <v>4227</v>
+        <v>4229</v>
       </c>
       <c r="D2166" s="4" t="s">
         <v>7</v>
@@ -51573,15 +51597,15 @@
         <v>71</v>
       </c>
       <c r="F2166" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2167" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2167" s="3" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="C2167" s="3" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="D2167" s="3" t="s">
         <v>7</v>
@@ -51590,32 +51614,32 @@
         <v>71</v>
       </c>
       <c r="F2167" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2168" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2168" s="4" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="C2168" s="4" t="s">
-        <v>4230</v>
+        <v>4233</v>
       </c>
       <c r="D2168" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2168" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2168" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2169" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2169" s="3" t="s">
-        <v>4232</v>
+        <v>4234</v>
       </c>
       <c r="C2169" s="3" t="s">
-        <v>4233</v>
+        <v>4235</v>
       </c>
       <c r="D2169" s="3" t="s">
         <v>7</v>
@@ -51629,7 +51653,7 @@
     </row>
     <row r="2170" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2170" s="4" t="s">
-        <v>4234</v>
+        <v>4236</v>
       </c>
       <c r="C2170" s="4" t="s">
         <v>4235</v>
@@ -51646,10 +51670,10 @@
     </row>
     <row r="2171" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2171" s="3" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="C2171" s="3" t="s">
-        <v>4235</v>
+        <v>4238</v>
       </c>
       <c r="D2171" s="3" t="s">
         <v>7</v>
@@ -51658,12 +51682,12 @@
         <v>71</v>
       </c>
       <c r="F2171" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2172" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2172" s="4" t="s">
-        <v>4237</v>
+        <v>4239</v>
       </c>
       <c r="C2172" s="4" t="s">
         <v>4238</v>
@@ -51680,10 +51704,10 @@
     </row>
     <row r="2173" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2173" s="3" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="C2173" s="3" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="D2173" s="3" t="s">
         <v>7</v>
@@ -51692,21 +51716,21 @@
         <v>71</v>
       </c>
       <c r="F2173" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2174" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2174" s="4" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="C2174" s="4" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
       <c r="D2174" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2174" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2174" s="4" t="s">
         <v>68</v>
@@ -51714,19 +51738,19 @@
     </row>
     <row r="2175" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2175" s="3" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C2175" s="3" t="s">
         <v>4243</v>
       </c>
-      <c r="C2175" s="3" t="s">
-        <v>4244</v>
-      </c>
       <c r="D2175" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2175" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F2175" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2176" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51740,10 +51764,10 @@
         <v>7</v>
       </c>
       <c r="E2176" s="4" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F2176" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2177" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51757,10 +51781,10 @@
         <v>7</v>
       </c>
       <c r="E2177" s="3" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="F2177" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2178" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51774,7 +51798,7 @@
         <v>7</v>
       </c>
       <c r="E2178" s="4" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="F2178" s="4" t="s">
         <v>68</v>
@@ -51825,7 +51849,7 @@
         <v>7</v>
       </c>
       <c r="E2181" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F2181" s="3" t="s">
         <v>68</v>
@@ -51842,7 +51866,7 @@
         <v>7</v>
       </c>
       <c r="E2182" s="4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F2182" s="4" t="s">
         <v>68</v>
@@ -51910,7 +51934,7 @@
         <v>7</v>
       </c>
       <c r="E2186" s="4" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F2186" s="4" t="s">
         <v>68</v>
@@ -51927,7 +51951,7 @@
         <v>7</v>
       </c>
       <c r="E2187" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F2187" s="3" t="s">
         <v>68</v>
@@ -51944,7 +51968,7 @@
         <v>7</v>
       </c>
       <c r="E2188" s="4" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F2188" s="4" t="s">
         <v>68</v>
@@ -51961,10 +51985,10 @@
         <v>7</v>
       </c>
       <c r="E2189" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F2189" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2190" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51981,7 +52005,7 @@
         <v>134</v>
       </c>
       <c r="F2190" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2191" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52023,7 +52047,7 @@
         <v>4279</v>
       </c>
       <c r="C2193" s="3" t="s">
-        <v>4276</v>
+        <v>4280</v>
       </c>
       <c r="D2193" s="3" t="s">
         <v>7</v>
@@ -52032,21 +52056,21 @@
         <v>134</v>
       </c>
       <c r="F2193" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2194" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2194" s="4" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
       <c r="C2194" s="4" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="D2194" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2194" s="4" t="s">
-        <v>1371</v>
+        <v>134</v>
       </c>
       <c r="F2194" s="4" t="s">
         <v>7</v>
@@ -52054,121 +52078,121 @@
     </row>
     <row r="2195" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2195" s="3" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="C2195" s="3" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
       <c r="D2195" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2195" s="3" t="s">
-        <v>1371</v>
+        <v>134</v>
       </c>
       <c r="F2195" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2196" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2196" s="4" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="C2196" s="4" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="D2196" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2196" s="4" t="s">
-        <v>1371</v>
+        <v>134</v>
       </c>
       <c r="F2196" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2197" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2197" s="3" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="C2197" s="3" t="s">
-        <v>4140</v>
+        <v>4284</v>
       </c>
       <c r="D2197" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2197" s="3" t="s">
-        <v>1371</v>
+        <v>134</v>
       </c>
       <c r="F2197" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2198" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2198" s="4" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="C2198" s="4" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="D2198" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2198" s="4" t="s">
-        <v>137</v>
+        <v>1371</v>
       </c>
       <c r="F2198" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2199" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2199" s="3" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="C2199" s="3" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="D2199" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2199" s="3" t="s">
-        <v>24</v>
+        <v>1371</v>
       </c>
       <c r="F2199" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2200" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2200" s="4" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="C2200" s="4" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="D2200" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2200" s="4" t="s">
-        <v>140</v>
+        <v>1371</v>
       </c>
       <c r="F2200" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2201" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2201" s="3" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="C2201" s="3" t="s">
-        <v>4294</v>
+        <v>4148</v>
       </c>
       <c r="D2201" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2201" s="3" t="s">
-        <v>140</v>
+        <v>1371</v>
       </c>
       <c r="F2201" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2202" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52182,7 +52206,7 @@
         <v>7</v>
       </c>
       <c r="E2202" s="4" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="F2202" s="4" t="s">
         <v>9</v>
@@ -52216,7 +52240,7 @@
         <v>7</v>
       </c>
       <c r="E2204" s="4" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2204" s="4" t="s">
         <v>9</v>
@@ -52233,7 +52257,7 @@
         <v>7</v>
       </c>
       <c r="E2205" s="3" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2205" s="3" t="s">
         <v>9</v>
@@ -52315,10 +52339,10 @@
         <v>4312</v>
       </c>
       <c r="D2210" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2210" s="4" t="s">
-        <v>675</v>
+        <v>24</v>
       </c>
       <c r="F2210" s="4" t="s">
         <v>9</v>
@@ -52332,13 +52356,13 @@
         <v>4314</v>
       </c>
       <c r="D2211" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2211" s="3" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F2211" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2212" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52352,10 +52376,10 @@
         <v>7</v>
       </c>
       <c r="E2212" s="4" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="F2212" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2213" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52369,10 +52393,10 @@
         <v>7</v>
       </c>
       <c r="E2213" s="3" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="F2213" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2214" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52383,13 +52407,13 @@
         <v>4320</v>
       </c>
       <c r="D2214" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2214" s="4" t="s">
-        <v>134</v>
+        <v>675</v>
       </c>
       <c r="F2214" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2215" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52400,10 +52424,10 @@
         <v>4322</v>
       </c>
       <c r="D2215" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2215" s="3" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="F2215" s="3" t="s">
         <v>68</v>
@@ -52448,7 +52472,7 @@
         <v>4327</v>
       </c>
       <c r="C2218" s="4" t="s">
-        <v>581</v>
+        <v>4328</v>
       </c>
       <c r="D2218" s="4" t="s">
         <v>7</v>
@@ -52462,10 +52486,10 @@
     </row>
     <row r="2219" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2219" s="3" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="C2219" s="3" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="D2219" s="3" t="s">
         <v>7</v>
@@ -52479,10 +52503,10 @@
     </row>
     <row r="2220" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2220" s="4" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="C2220" s="4" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="D2220" s="4" t="s">
         <v>7</v>
@@ -52496,10 +52520,10 @@
     </row>
     <row r="2221" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2221" s="3" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="C2221" s="3" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="D2221" s="3" t="s">
         <v>7</v>
@@ -52513,10 +52537,10 @@
     </row>
     <row r="2222" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2222" s="4" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="C2222" s="4" t="s">
-        <v>4335</v>
+        <v>581</v>
       </c>
       <c r="D2222" s="4" t="s">
         <v>7</v>
@@ -52601,7 +52625,7 @@
         <v>4344</v>
       </c>
       <c r="C2227" s="3" t="s">
-        <v>4339</v>
+        <v>4345</v>
       </c>
       <c r="D2227" s="3" t="s">
         <v>7</v>
@@ -52615,10 +52639,10 @@
     </row>
     <row r="2228" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2228" s="4" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="C2228" s="4" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="D2228" s="4" t="s">
         <v>7</v>
@@ -52632,10 +52656,10 @@
     </row>
     <row r="2229" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2229" s="3" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="C2229" s="3" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="D2229" s="3" t="s">
         <v>7</v>
@@ -52649,10 +52673,10 @@
     </row>
     <row r="2230" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2230" s="4" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="C2230" s="4" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="D2230" s="4" t="s">
         <v>7</v>
@@ -52666,10 +52690,10 @@
     </row>
     <row r="2231" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2231" s="3" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="C2231" s="3" t="s">
-        <v>4352</v>
+        <v>4347</v>
       </c>
       <c r="D2231" s="3" t="s">
         <v>7</v>
@@ -52720,7 +52744,7 @@
         <v>4357</v>
       </c>
       <c r="C2234" s="4" t="s">
-        <v>4356</v>
+        <v>4358</v>
       </c>
       <c r="D2234" s="4" t="s">
         <v>7</v>
@@ -52734,10 +52758,10 @@
     </row>
     <row r="2235" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2235" s="3" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="C2235" s="3" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="D2235" s="3" t="s">
         <v>7</v>
@@ -52751,10 +52775,10 @@
     </row>
     <row r="2236" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2236" s="4" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="C2236" s="4" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="D2236" s="4" t="s">
         <v>7</v>
@@ -52768,10 +52792,10 @@
     </row>
     <row r="2237" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2237" s="3" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="C2237" s="3" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="D2237" s="3" t="s">
         <v>7</v>
@@ -52785,10 +52809,10 @@
     </row>
     <row r="2238" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2238" s="4" t="s">
+        <v>4365</v>
+      </c>
+      <c r="C2238" s="4" t="s">
         <v>4364</v>
-      </c>
-      <c r="C2238" s="4" t="s">
-        <v>4365</v>
       </c>
       <c r="D2238" s="4" t="s">
         <v>7</v>
@@ -52805,7 +52829,7 @@
         <v>4366</v>
       </c>
       <c r="C2239" s="3" t="s">
-        <v>2663</v>
+        <v>4367</v>
       </c>
       <c r="D2239" s="3" t="s">
         <v>7</v>
@@ -52819,10 +52843,10 @@
     </row>
     <row r="2240" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2240" s="4" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="C2240" s="4" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="D2240" s="4" t="s">
         <v>7</v>
@@ -52836,78 +52860,78 @@
     </row>
     <row r="2241" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2241" s="3" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="C2241" s="3" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="D2241" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2241" s="3" t="s">
-        <v>2782</v>
+        <v>134</v>
       </c>
       <c r="F2241" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2242" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2242" s="4" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="C2242" s="4" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="D2242" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2242" s="4" t="s">
-        <v>2782</v>
+        <v>134</v>
       </c>
       <c r="F2242" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2243" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2243" s="3" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="C2243" s="3" t="s">
-        <v>2819</v>
+        <v>2663</v>
       </c>
       <c r="D2243" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2243" s="3" t="s">
-        <v>2782</v>
+        <v>134</v>
       </c>
       <c r="F2243" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2244" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2244" s="4" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="C2244" s="4" t="s">
-        <v>2805</v>
+        <v>4376</v>
       </c>
       <c r="D2244" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2244" s="4" t="s">
-        <v>2782</v>
+        <v>134</v>
       </c>
       <c r="F2244" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2245" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2245" s="3" t="s">
-        <v>4375</v>
+        <v>4377</v>
       </c>
       <c r="C2245" s="3" t="s">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="D2245" s="3" t="s">
         <v>7</v>
@@ -52921,10 +52945,10 @@
     </row>
     <row r="2246" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2246" s="4" t="s">
-        <v>4377</v>
+        <v>4379</v>
       </c>
       <c r="C2246" s="4" t="s">
-        <v>2819</v>
+        <v>4380</v>
       </c>
       <c r="D2246" s="4" t="s">
         <v>7</v>
@@ -52938,10 +52962,10 @@
     </row>
     <row r="2247" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2247" s="3" t="s">
-        <v>4378</v>
+        <v>4381</v>
       </c>
       <c r="C2247" s="3" t="s">
-        <v>4379</v>
+        <v>2819</v>
       </c>
       <c r="D2247" s="3" t="s">
         <v>7</v>
@@ -52955,10 +52979,10 @@
     </row>
     <row r="2248" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2248" s="4" t="s">
-        <v>4380</v>
+        <v>4382</v>
       </c>
       <c r="C2248" s="4" t="s">
-        <v>4381</v>
+        <v>2805</v>
       </c>
       <c r="D2248" s="4" t="s">
         <v>7</v>
@@ -52972,10 +52996,10 @@
     </row>
     <row r="2249" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2249" s="3" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="C2249" s="3" t="s">
-        <v>2825</v>
+        <v>4384</v>
       </c>
       <c r="D2249" s="3" t="s">
         <v>7</v>
@@ -52989,10 +53013,10 @@
     </row>
     <row r="2250" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2250" s="4" t="s">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="C2250" s="4" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="D2250" s="4" t="s">
         <v>7</v>
@@ -53006,10 +53030,10 @@
     </row>
     <row r="2251" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2251" s="3" t="s">
-        <v>4384</v>
+        <v>4386</v>
       </c>
       <c r="C2251" s="3" t="s">
-        <v>2876</v>
+        <v>4387</v>
       </c>
       <c r="D2251" s="3" t="s">
         <v>7</v>
@@ -53023,10 +53047,10 @@
     </row>
     <row r="2252" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2252" s="4" t="s">
-        <v>4385</v>
+        <v>4388</v>
       </c>
       <c r="C2252" s="4" t="s">
-        <v>2892</v>
+        <v>4389</v>
       </c>
       <c r="D2252" s="4" t="s">
         <v>7</v>
@@ -53040,10 +53064,10 @@
     </row>
     <row r="2253" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2253" s="3" t="s">
-        <v>4386</v>
+        <v>4390</v>
       </c>
       <c r="C2253" s="3" t="s">
-        <v>2896</v>
+        <v>2825</v>
       </c>
       <c r="D2253" s="3" t="s">
         <v>7</v>
@@ -53057,16 +53081,16 @@
     </row>
     <row r="2254" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2254" s="4" t="s">
-        <v>4387</v>
+        <v>4391</v>
       </c>
       <c r="C2254" s="4" t="s">
-        <v>4388</v>
+        <v>2825</v>
       </c>
       <c r="D2254" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E2254" s="4" t="s">
-        <v>1028</v>
+        <v>2782</v>
       </c>
       <c r="F2254" s="4" t="s">
         <v>7</v>
@@ -53074,16 +53098,16 @@
     </row>
     <row r="2255" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2255" s="3" t="s">
-        <v>4389</v>
+        <v>4392</v>
       </c>
       <c r="C2255" s="3" t="s">
-        <v>4390</v>
+        <v>2876</v>
       </c>
       <c r="D2255" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E2255" s="3" t="s">
-        <v>1028</v>
+        <v>2782</v>
       </c>
       <c r="F2255" s="3" t="s">
         <v>7</v>
@@ -53091,33 +53115,33 @@
     </row>
     <row r="2256" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2256" s="4" t="s">
-        <v>4391</v>
+        <v>4393</v>
       </c>
       <c r="C2256" s="4" t="s">
-        <v>4392</v>
+        <v>2892</v>
       </c>
       <c r="D2256" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E2256" s="4" t="s">
-        <v>193</v>
+        <v>2782</v>
       </c>
       <c r="F2256" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2257" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2257" s="3" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="C2257" s="3" t="s">
-        <v>4394</v>
+        <v>2896</v>
       </c>
       <c r="D2257" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E2257" s="3" t="s">
-        <v>1028</v>
+        <v>2782</v>
       </c>
       <c r="F2257" s="3" t="s">
         <v>7</v>
@@ -53131,10 +53155,10 @@
         <v>4396</v>
       </c>
       <c r="D2258" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2258" s="4" t="s">
-        <v>1374</v>
+        <v>1028</v>
       </c>
       <c r="F2258" s="4" t="s">
         <v>7</v>
@@ -53148,10 +53172,10 @@
         <v>4398</v>
       </c>
       <c r="D2259" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2259" s="3" t="s">
-        <v>1374</v>
+        <v>1028</v>
       </c>
       <c r="F2259" s="3" t="s">
         <v>7</v>
@@ -53165,13 +53189,13 @@
         <v>4400</v>
       </c>
       <c r="D2260" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2260" s="4" t="s">
-        <v>1374</v>
+        <v>193</v>
       </c>
       <c r="F2260" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2261" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53182,10 +53206,10 @@
         <v>4402</v>
       </c>
       <c r="D2261" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2261" s="3" t="s">
-        <v>1374</v>
+        <v>1028</v>
       </c>
       <c r="F2261" s="3" t="s">
         <v>7</v>
@@ -53270,7 +53294,7 @@
         <v>7</v>
       </c>
       <c r="E2266" s="4" t="s">
-        <v>55</v>
+        <v>1374</v>
       </c>
       <c r="F2266" s="4" t="s">
         <v>7</v>
@@ -53287,7 +53311,7 @@
         <v>7</v>
       </c>
       <c r="E2267" s="3" t="s">
-        <v>55</v>
+        <v>1374</v>
       </c>
       <c r="F2267" s="3" t="s">
         <v>7</v>
@@ -53304,7 +53328,7 @@
         <v>7</v>
       </c>
       <c r="E2268" s="4" t="s">
-        <v>55</v>
+        <v>1374</v>
       </c>
       <c r="F2268" s="4" t="s">
         <v>7</v>
@@ -53321,7 +53345,7 @@
         <v>7</v>
       </c>
       <c r="E2269" s="3" t="s">
-        <v>55</v>
+        <v>1374</v>
       </c>
       <c r="F2269" s="3" t="s">
         <v>7</v>
@@ -53400,7 +53424,7 @@
         <v>4427</v>
       </c>
       <c r="C2274" s="4" t="s">
-        <v>4167</v>
+        <v>4428</v>
       </c>
       <c r="D2274" s="4" t="s">
         <v>7</v>
@@ -53414,10 +53438,10 @@
     </row>
     <row r="2275" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2275" s="3" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="C2275" s="3" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="D2275" s="3" t="s">
         <v>7</v>
@@ -53431,10 +53455,10 @@
     </row>
     <row r="2276" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2276" s="4" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="C2276" s="4" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="D2276" s="4" t="s">
         <v>7</v>
@@ -53448,10 +53472,10 @@
     </row>
     <row r="2277" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2277" s="3" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="C2277" s="3" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="D2277" s="3" t="s">
         <v>7</v>
@@ -53465,10 +53489,10 @@
     </row>
     <row r="2278" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2278" s="4" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
       <c r="C2278" s="4" t="s">
-        <v>4435</v>
+        <v>4175</v>
       </c>
       <c r="D2278" s="4" t="s">
         <v>7</v>
@@ -53491,7 +53515,7 @@
         <v>7</v>
       </c>
       <c r="E2279" s="3" t="s">
-        <v>1374</v>
+        <v>55</v>
       </c>
       <c r="F2279" s="3" t="s">
         <v>7</v>
@@ -53508,7 +53532,7 @@
         <v>7</v>
       </c>
       <c r="E2280" s="4" t="s">
-        <v>1374</v>
+        <v>55</v>
       </c>
       <c r="F2280" s="4" t="s">
         <v>7</v>
@@ -53525,7 +53549,7 @@
         <v>7</v>
       </c>
       <c r="E2281" s="3" t="s">
-        <v>1374</v>
+        <v>55</v>
       </c>
       <c r="F2281" s="3" t="s">
         <v>7</v>
@@ -53542,7 +53566,7 @@
         <v>7</v>
       </c>
       <c r="E2282" s="4" t="s">
-        <v>1374</v>
+        <v>55</v>
       </c>
       <c r="F2282" s="4" t="s">
         <v>7</v>
@@ -53559,10 +53583,10 @@
         <v>7</v>
       </c>
       <c r="E2283" s="3" t="s">
-        <v>67</v>
+        <v>1374</v>
       </c>
       <c r="F2283" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2284" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53576,10 +53600,10 @@
         <v>7</v>
       </c>
       <c r="E2284" s="4" t="s">
-        <v>67</v>
+        <v>1374</v>
       </c>
       <c r="F2284" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2285" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53593,10 +53617,10 @@
         <v>7</v>
       </c>
       <c r="E2285" s="3" t="s">
-        <v>67</v>
+        <v>1374</v>
       </c>
       <c r="F2285" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2286" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53610,10 +53634,10 @@
         <v>7</v>
       </c>
       <c r="E2286" s="4" t="s">
-        <v>67</v>
+        <v>1374</v>
       </c>
       <c r="F2286" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2287" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53678,7 +53702,7 @@
         <v>7</v>
       </c>
       <c r="E2290" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2290" s="4" t="s">
         <v>68</v>
@@ -53695,7 +53719,7 @@
         <v>7</v>
       </c>
       <c r="E2291" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2291" s="3" t="s">
         <v>68</v>
@@ -53712,7 +53736,7 @@
         <v>7</v>
       </c>
       <c r="E2292" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2292" s="4" t="s">
         <v>68</v>
@@ -53729,7 +53753,7 @@
         <v>7</v>
       </c>
       <c r="E2293" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2293" s="3" t="s">
         <v>68</v>
@@ -53825,7 +53849,7 @@
         <v>4476</v>
       </c>
       <c r="C2299" s="3" t="s">
-        <v>1861</v>
+        <v>4477</v>
       </c>
       <c r="D2299" s="3" t="s">
         <v>7</v>
@@ -53839,10 +53863,10 @@
     </row>
     <row r="2300" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2300" s="4" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="C2300" s="4" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="D2300" s="4" t="s">
         <v>7</v>
@@ -53856,10 +53880,10 @@
     </row>
     <row r="2301" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2301" s="3" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
       <c r="C2301" s="3" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="D2301" s="3" t="s">
         <v>7</v>
@@ -53873,10 +53897,10 @@
     </row>
     <row r="2302" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2302" s="4" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="C2302" s="4" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
       <c r="D2302" s="4" t="s">
         <v>7</v>
@@ -53890,10 +53914,10 @@
     </row>
     <row r="2303" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2303" s="3" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="C2303" s="3" t="s">
-        <v>4484</v>
+        <v>1861</v>
       </c>
       <c r="D2303" s="3" t="s">
         <v>7</v>
@@ -53978,7 +54002,7 @@
         <v>4493</v>
       </c>
       <c r="C2308" s="4" t="s">
-        <v>1810</v>
+        <v>4494</v>
       </c>
       <c r="D2308" s="4" t="s">
         <v>7</v>
@@ -53992,16 +54016,16 @@
     </row>
     <row r="2309" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2309" s="3" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="C2309" s="3" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="D2309" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2309" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2309" s="3" t="s">
         <v>68</v>
@@ -54009,10 +54033,10 @@
     </row>
     <row r="2310" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2310" s="4" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="C2310" s="4" t="s">
-        <v>4233</v>
+        <v>4498</v>
       </c>
       <c r="D2310" s="4" t="s">
         <v>7</v>
@@ -54026,10 +54050,10 @@
     </row>
     <row r="2311" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2311" s="3" t="s">
-        <v>4497</v>
+        <v>4499</v>
       </c>
       <c r="C2311" s="3" t="s">
-        <v>4238</v>
+        <v>4500</v>
       </c>
       <c r="D2311" s="3" t="s">
         <v>7</v>
@@ -54043,10 +54067,10 @@
     </row>
     <row r="2312" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2312" s="4" t="s">
-        <v>4498</v>
+        <v>4501</v>
       </c>
       <c r="C2312" s="4" t="s">
-        <v>4499</v>
+        <v>1810</v>
       </c>
       <c r="D2312" s="4" t="s">
         <v>7</v>
@@ -54060,16 +54084,16 @@
     </row>
     <row r="2313" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2313" s="3" t="s">
-        <v>4500</v>
+        <v>4502</v>
       </c>
       <c r="C2313" s="3" t="s">
-        <v>1820</v>
+        <v>4503</v>
       </c>
       <c r="D2313" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2313" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2313" s="3" t="s">
         <v>68</v>
@@ -54077,10 +54101,10 @@
     </row>
     <row r="2314" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2314" s="4" t="s">
-        <v>4501</v>
+        <v>4504</v>
       </c>
       <c r="C2314" s="4" t="s">
-        <v>4502</v>
+        <v>4241</v>
       </c>
       <c r="D2314" s="4" t="s">
         <v>7</v>
@@ -54094,10 +54118,10 @@
     </row>
     <row r="2315" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2315" s="3" t="s">
-        <v>4503</v>
+        <v>4505</v>
       </c>
       <c r="C2315" s="3" t="s">
-        <v>4504</v>
+        <v>4246</v>
       </c>
       <c r="D2315" s="3" t="s">
         <v>7</v>
@@ -54111,10 +54135,10 @@
     </row>
     <row r="2316" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2316" s="4" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="C2316" s="4" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="D2316" s="4" t="s">
         <v>7</v>
@@ -54128,16 +54152,16 @@
     </row>
     <row r="2317" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2317" s="3" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="C2317" s="3" t="s">
-        <v>4508</v>
+        <v>1820</v>
       </c>
       <c r="D2317" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2317" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2317" s="3" t="s">
         <v>68</v>
@@ -54154,7 +54178,7 @@
         <v>7</v>
       </c>
       <c r="E2318" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2318" s="4" t="s">
         <v>68</v>
@@ -54171,7 +54195,7 @@
         <v>7</v>
       </c>
       <c r="E2319" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2319" s="3" t="s">
         <v>68</v>
@@ -54188,7 +54212,7 @@
         <v>7</v>
       </c>
       <c r="E2320" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2320" s="4" t="s">
         <v>68</v>
@@ -54205,7 +54229,7 @@
         <v>7</v>
       </c>
       <c r="E2321" s="3" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F2321" s="3" t="s">
         <v>68</v>
@@ -54222,7 +54246,7 @@
         <v>7</v>
       </c>
       <c r="E2322" s="4" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F2322" s="4" t="s">
         <v>68</v>
@@ -54239,7 +54263,7 @@
         <v>7</v>
       </c>
       <c r="E2323" s="3" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F2323" s="3" t="s">
         <v>68</v>
@@ -54256,7 +54280,7 @@
         <v>7</v>
       </c>
       <c r="E2324" s="4" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F2324" s="4" t="s">
         <v>68</v>
@@ -54307,7 +54331,7 @@
         <v>7</v>
       </c>
       <c r="E2327" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2327" s="3" t="s">
         <v>68</v>
@@ -54324,7 +54348,7 @@
         <v>7</v>
       </c>
       <c r="E2328" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2328" s="4" t="s">
         <v>68</v>
@@ -54341,7 +54365,7 @@
         <v>7</v>
       </c>
       <c r="E2329" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2329" s="3" t="s">
         <v>68</v>
@@ -54358,7 +54382,7 @@
         <v>7</v>
       </c>
       <c r="E2330" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2330" s="4" t="s">
         <v>68</v>
@@ -54403,7 +54427,7 @@
         <v>4539</v>
       </c>
       <c r="C2333" s="3" t="s">
-        <v>1989</v>
+        <v>4540</v>
       </c>
       <c r="D2333" s="3" t="s">
         <v>7</v>
@@ -54417,10 +54441,10 @@
     </row>
     <row r="2334" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2334" s="4" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="C2334" s="4" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="D2334" s="4" t="s">
         <v>7</v>
@@ -54434,10 +54458,10 @@
     </row>
     <row r="2335" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2335" s="3" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="C2335" s="3" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="D2335" s="3" t="s">
         <v>7</v>
@@ -54451,10 +54475,10 @@
     </row>
     <row r="2336" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2336" s="4" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="C2336" s="4" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="D2336" s="4" t="s">
         <v>7</v>
@@ -54468,10 +54492,10 @@
     </row>
     <row r="2337" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2337" s="3" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="C2337" s="3" t="s">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="D2337" s="3" t="s">
         <v>7</v>
@@ -54485,10 +54509,10 @@
     </row>
     <row r="2338" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2338" s="4" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="C2338" s="4" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="D2338" s="4" t="s">
         <v>7</v>
@@ -54502,10 +54526,10 @@
     </row>
     <row r="2339" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2339" s="3" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="C2339" s="3" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="D2339" s="3" t="s">
         <v>7</v>
@@ -54519,10 +54543,10 @@
     </row>
     <row r="2340" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2340" s="4" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="C2340" s="4" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="D2340" s="4" t="s">
         <v>7</v>
@@ -54536,10 +54560,10 @@
     </row>
     <row r="2341" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2341" s="3" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="C2341" s="3" t="s">
-        <v>4554</v>
+        <v>2002</v>
       </c>
       <c r="D2341" s="3" t="s">
         <v>7</v>
@@ -54624,7 +54648,7 @@
         <v>4563</v>
       </c>
       <c r="C2346" s="4" t="s">
-        <v>2022</v>
+        <v>4564</v>
       </c>
       <c r="D2346" s="4" t="s">
         <v>7</v>
@@ -54638,16 +54662,16 @@
     </row>
     <row r="2347" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2347" s="3" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="C2347" s="3" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="D2347" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2347" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2347" s="3" t="s">
         <v>68</v>
@@ -54655,10 +54679,10 @@
     </row>
     <row r="2348" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2348" s="4" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="C2348" s="4" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="D2348" s="4" t="s">
         <v>7</v>
@@ -54672,10 +54696,10 @@
     </row>
     <row r="2349" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2349" s="3" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="C2349" s="3" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="D2349" s="3" t="s">
         <v>7</v>
@@ -54689,10 +54713,10 @@
     </row>
     <row r="2350" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2350" s="4" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="C2350" s="4" t="s">
-        <v>4571</v>
+        <v>2022</v>
       </c>
       <c r="D2350" s="4" t="s">
         <v>7</v>
@@ -54709,13 +54733,13 @@
         <v>4572</v>
       </c>
       <c r="C2351" s="3" t="s">
-        <v>2074</v>
+        <v>4573</v>
       </c>
       <c r="D2351" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2351" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2351" s="3" t="s">
         <v>68</v>
@@ -54723,10 +54747,10 @@
     </row>
     <row r="2352" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2352" s="4" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="C2352" s="4" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="D2352" s="4" t="s">
         <v>7</v>
@@ -54740,10 +54764,10 @@
     </row>
     <row r="2353" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2353" s="3" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="C2353" s="3" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="D2353" s="3" t="s">
         <v>7</v>
@@ -54757,10 +54781,10 @@
     </row>
     <row r="2354" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2354" s="4" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="C2354" s="4" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="D2354" s="4" t="s">
         <v>7</v>
@@ -54774,10 +54798,10 @@
     </row>
     <row r="2355" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2355" s="3" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="C2355" s="3" t="s">
-        <v>4580</v>
+        <v>2074</v>
       </c>
       <c r="D2355" s="3" t="s">
         <v>7</v>
@@ -54851,7 +54875,7 @@
         <v>7</v>
       </c>
       <c r="E2359" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2359" s="3" t="s">
         <v>68</v>
@@ -54868,7 +54892,7 @@
         <v>7</v>
       </c>
       <c r="E2360" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2360" s="4" t="s">
         <v>68</v>
@@ -54885,7 +54909,7 @@
         <v>7</v>
       </c>
       <c r="E2361" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2361" s="3" t="s">
         <v>68</v>
@@ -54902,7 +54926,7 @@
         <v>7</v>
       </c>
       <c r="E2362" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2362" s="4" t="s">
         <v>68</v>
@@ -54919,75 +54943,75 @@
         <v>7</v>
       </c>
       <c r="E2363" s="3" t="s">
-        <v>4597</v>
+        <v>104</v>
       </c>
       <c r="F2363" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2364" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2364" s="4" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C2364" s="4" t="s">
         <v>4598</v>
       </c>
-      <c r="C2364" s="4" t="s">
-        <v>4599</v>
-      </c>
       <c r="D2364" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2364" s="4" t="s">
-        <v>4597</v>
+        <v>104</v>
       </c>
       <c r="F2364" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2365" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2365" s="3" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C2365" s="3" t="s">
         <v>4600</v>
       </c>
-      <c r="C2365" s="3" t="s">
-        <v>4601</v>
-      </c>
       <c r="D2365" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2365" s="3" t="s">
-        <v>4597</v>
+        <v>104</v>
       </c>
       <c r="F2365" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2366" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2366" s="4" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C2366" s="4" t="s">
         <v>4602</v>
       </c>
-      <c r="C2366" s="4" t="s">
-        <v>4603</v>
-      </c>
       <c r="D2366" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2366" s="4" t="s">
-        <v>4597</v>
+        <v>104</v>
       </c>
       <c r="F2366" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2367" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2367" s="3" t="s">
+        <v>4603</v>
+      </c>
+      <c r="C2367" s="3" t="s">
         <v>4604</v>
       </c>
-      <c r="C2367" s="3" t="s">
+      <c r="D2367" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2367" s="3" t="s">
         <v>4605</v>
-      </c>
-      <c r="D2367" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2367" s="3" t="s">
-        <v>4597</v>
       </c>
       <c r="F2367" s="3" t="s">
         <v>9</v>
@@ -55004,7 +55028,7 @@
         <v>7</v>
       </c>
       <c r="E2368" s="4" t="s">
-        <v>4597</v>
+        <v>4605</v>
       </c>
       <c r="F2368" s="4" t="s">
         <v>9</v>
@@ -55021,7 +55045,7 @@
         <v>7</v>
       </c>
       <c r="E2369" s="3" t="s">
-        <v>4597</v>
+        <v>4605</v>
       </c>
       <c r="F2369" s="3" t="s">
         <v>9</v>
@@ -55038,7 +55062,7 @@
         <v>7</v>
       </c>
       <c r="E2370" s="4" t="s">
-        <v>140</v>
+        <v>4605</v>
       </c>
       <c r="F2370" s="4" t="s">
         <v>9</v>
@@ -55055,7 +55079,7 @@
         <v>7</v>
       </c>
       <c r="E2371" s="3" t="s">
-        <v>140</v>
+        <v>4605</v>
       </c>
       <c r="F2371" s="3" t="s">
         <v>9</v>
@@ -55072,7 +55096,7 @@
         <v>7</v>
       </c>
       <c r="E2372" s="4" t="s">
-        <v>140</v>
+        <v>4605</v>
       </c>
       <c r="F2372" s="4" t="s">
         <v>9</v>
@@ -55089,7 +55113,7 @@
         <v>7</v>
       </c>
       <c r="E2373" s="3" t="s">
-        <v>140</v>
+        <v>4605</v>
       </c>
       <c r="F2373" s="3" t="s">
         <v>9</v>
@@ -55140,7 +55164,7 @@
         <v>7</v>
       </c>
       <c r="E2376" s="4" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2376" s="4" t="s">
         <v>9</v>
@@ -55157,7 +55181,7 @@
         <v>7</v>
       </c>
       <c r="E2377" s="3" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2377" s="3" t="s">
         <v>9</v>
@@ -55174,7 +55198,7 @@
         <v>7</v>
       </c>
       <c r="E2378" s="4" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2378" s="4" t="s">
         <v>9</v>
@@ -55191,7 +55215,7 @@
         <v>7</v>
       </c>
       <c r="E2379" s="3" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2379" s="3" t="s">
         <v>9</v>
@@ -55457,7 +55481,7 @@
         <v>4660</v>
       </c>
       <c r="C2395" s="3" t="s">
-        <v>2247</v>
+        <v>4661</v>
       </c>
       <c r="D2395" s="3" t="s">
         <v>7</v>
@@ -55471,10 +55495,10 @@
     </row>
     <row r="2396" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2396" s="4" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="C2396" s="4" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="D2396" s="4" t="s">
         <v>7</v>
@@ -55488,10 +55512,10 @@
     </row>
     <row r="2397" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2397" s="3" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="C2397" s="3" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="D2397" s="3" t="s">
         <v>7</v>
@@ -55505,10 +55529,10 @@
     </row>
     <row r="2398" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2398" s="4" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="C2398" s="4" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="D2398" s="4" t="s">
         <v>7</v>
@@ -55522,10 +55546,10 @@
     </row>
     <row r="2399" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2399" s="3" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="C2399" s="3" t="s">
-        <v>2273</v>
+        <v>2247</v>
       </c>
       <c r="D2399" s="3" t="s">
         <v>7</v>
@@ -55539,10 +55563,10 @@
     </row>
     <row r="2400" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2400" s="4" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="C2400" s="4" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="D2400" s="4" t="s">
         <v>7</v>
@@ -55556,10 +55580,10 @@
     </row>
     <row r="2401" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2401" s="3" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="C2401" s="3" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
       <c r="D2401" s="3" t="s">
         <v>7</v>
@@ -55573,10 +55597,10 @@
     </row>
     <row r="2402" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2402" s="4" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="C2402" s="4" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
       <c r="D2402" s="4" t="s">
         <v>7</v>
@@ -55590,10 +55614,10 @@
     </row>
     <row r="2403" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2403" s="3" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
       <c r="C2403" s="3" t="s">
-        <v>4675</v>
+        <v>2273</v>
       </c>
       <c r="D2403" s="3" t="s">
         <v>7</v>
@@ -55627,7 +55651,7 @@
         <v>4678</v>
       </c>
       <c r="C2405" s="3" t="s">
-        <v>2312</v>
+        <v>4679</v>
       </c>
       <c r="D2405" s="3" t="s">
         <v>7</v>
@@ -55641,16 +55665,16 @@
     </row>
     <row r="2406" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2406" s="4" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
       <c r="C2406" s="4" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="D2406" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2406" s="4" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="F2406" s="4" t="s">
         <v>9</v>
@@ -55658,16 +55682,16 @@
     </row>
     <row r="2407" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2407" s="3" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="C2407" s="3" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
       <c r="D2407" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2407" s="3" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="F2407" s="3" t="s">
         <v>9</v>
@@ -55675,16 +55699,16 @@
     </row>
     <row r="2408" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2408" s="4" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
       <c r="C2408" s="4" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
       <c r="D2408" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2408" s="4" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="F2408" s="4" t="s">
         <v>9</v>
@@ -55692,84 +55716,84 @@
     </row>
     <row r="2409" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2409" s="3" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="C2409" s="3" t="s">
-        <v>4686</v>
+        <v>2312</v>
       </c>
       <c r="D2409" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2409" s="3" t="s">
-        <v>4687</v>
+        <v>24</v>
       </c>
       <c r="F2409" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2410" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2410" s="4" t="s">
+        <v>4687</v>
+      </c>
+      <c r="C2410" s="4" t="s">
         <v>4688</v>
       </c>
-      <c r="C2410" s="4" t="s">
-        <v>4689</v>
-      </c>
       <c r="D2410" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2410" s="4" t="s">
-        <v>4687</v>
+        <v>140</v>
       </c>
       <c r="F2410" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2411" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2411" s="3" t="s">
+        <v>4689</v>
+      </c>
+      <c r="C2411" s="3" t="s">
         <v>4690</v>
       </c>
-      <c r="C2411" s="3" t="s">
-        <v>4691</v>
-      </c>
       <c r="D2411" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2411" s="3" t="s">
-        <v>4687</v>
+        <v>140</v>
       </c>
       <c r="F2411" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2412" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2412" s="4" t="s">
+        <v>4691</v>
+      </c>
+      <c r="C2412" s="4" t="s">
         <v>4692</v>
       </c>
-      <c r="C2412" s="4" t="s">
-        <v>4693</v>
-      </c>
       <c r="D2412" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2412" s="4" t="s">
-        <v>4687</v>
+        <v>140</v>
       </c>
       <c r="F2412" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2413" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2413" s="3" t="s">
+        <v>4693</v>
+      </c>
+      <c r="C2413" s="3" t="s">
         <v>4694</v>
       </c>
-      <c r="C2413" s="3" t="s">
+      <c r="D2413" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2413" s="3" t="s">
         <v>4695</v>
-      </c>
-      <c r="D2413" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2413" s="3" t="s">
-        <v>4687</v>
       </c>
       <c r="F2413" s="3" t="s">
         <v>68</v>
@@ -55786,7 +55810,7 @@
         <v>7</v>
       </c>
       <c r="E2414" s="4" t="s">
-        <v>4687</v>
+        <v>4695</v>
       </c>
       <c r="F2414" s="4" t="s">
         <v>68</v>
@@ -55803,7 +55827,7 @@
         <v>7</v>
       </c>
       <c r="E2415" s="3" t="s">
-        <v>4687</v>
+        <v>4695</v>
       </c>
       <c r="F2415" s="3" t="s">
         <v>68</v>
@@ -55820,7 +55844,7 @@
         <v>7</v>
       </c>
       <c r="E2416" s="4" t="s">
-        <v>4687</v>
+        <v>4695</v>
       </c>
       <c r="F2416" s="4" t="s">
         <v>68</v>
@@ -55837,10 +55861,10 @@
         <v>7</v>
       </c>
       <c r="E2417" s="3" t="s">
-        <v>1028</v>
+        <v>4695</v>
       </c>
       <c r="F2417" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2418" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -55851,16 +55875,84 @@
         <v>4705</v>
       </c>
       <c r="D2418" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2418" s="4" t="s">
+        <v>4695</v>
+      </c>
+      <c r="F2418" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2419" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B2419" s="3" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C2419" s="3" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D2419" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2419" s="3" t="s">
+        <v>4695</v>
+      </c>
+      <c r="F2419" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2420" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B2420" s="4" t="s">
+        <v>4708</v>
+      </c>
+      <c r="C2420" s="4" t="s">
+        <v>4709</v>
+      </c>
+      <c r="D2420" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2420" s="4" t="s">
+        <v>4695</v>
+      </c>
+      <c r="F2420" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2421" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B2421" s="3" t="s">
+        <v>4710</v>
+      </c>
+      <c r="C2421" s="3" t="s">
+        <v>4711</v>
+      </c>
+      <c r="D2421" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2421" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F2421" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2422" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B2422" s="4" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C2422" s="4" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D2422" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="E2418" s="4" t="s">
+      <c r="E2422" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F2418" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2419" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+      <c r="F2422" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2423" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -55880,10 +55972,10 @@
     <row r="1" s="1" customFormat="1" ht="16.5323" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>4706</v>
+        <v>4714</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4707</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -55891,7 +55983,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4708</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -55899,7 +55991,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4709</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -55907,28 +55999,28 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>4711</v>
+        <v>4719</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4712</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>4713</v>
+        <v>4721</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4714</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>4715</v>
+        <v>4723</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2782</v>
@@ -55936,170 +56028,170 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>4716</v>
+        <v>4724</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4717</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>4718</v>
+        <v>4726</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4719</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>4720</v>
+        <v>4728</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4721</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>4722</v>
+        <v>4730</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4723</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>4724</v>
+        <v>4732</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4725</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>4726</v>
+        <v>4734</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4727</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>4728</v>
+        <v>4736</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4729</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>4730</v>
+        <v>4738</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4731</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>4732</v>
+        <v>4740</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4733</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>4734</v>
+        <v>4742</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4735</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>4736</v>
+        <v>4744</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4737</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>4738</v>
+        <v>4746</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4739</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>4740</v>
+        <v>4748</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4741</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>4742</v>
+        <v>4750</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4743</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>4744</v>
+        <v>4752</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4745</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>4746</v>
+        <v>4754</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4747</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>4748</v>
+        <v>4756</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4749</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>4750</v>
+        <v>4758</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4751</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>4752</v>
+        <v>4760</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4753</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>4754</v>
+        <v>4762</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4745</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B29" s="3" t="s">
+        <v>4763</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>4755</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>4747</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
@@ -56122,23 +56214,23 @@
     <row r="1" s="1" customFormat="1" ht="55.9965" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>4756</v>
+        <v>4764</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4757</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>4758</v>
+        <v>4766</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4759</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>4760</v>
+        <v>4768</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1359</v>
@@ -56146,31 +56238,31 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>4761</v>
+        <v>4769</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4762</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>4763</v>
+        <v>4771</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4764</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>4765</v>
+        <v>4773</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4714</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>4766</v>
+        <v>4774</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2782</v>
@@ -56178,15 +56270,15 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>4767</v>
+        <v>4775</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4717</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>4768</v>
+        <v>4776</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1374</v>
@@ -56194,31 +56286,31 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>4769</v>
+        <v>4777</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4770</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>4771</v>
+        <v>4779</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4772</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>4773</v>
+        <v>4781</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4774</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>4775</v>
+        <v>4783</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>362</v>
@@ -56226,55 +56318,55 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>4776</v>
+        <v>4784</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4777</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>4778</v>
+        <v>4786</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4779</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>4780</v>
+        <v>4788</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4781</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>4782</v>
+        <v>4790</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4783</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>4784</v>
+        <v>4792</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4785</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>4786</v>
+        <v>4794</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4787</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>4788</v>
+        <v>4796</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>67</v>
@@ -56282,23 +56374,23 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>4789</v>
+        <v>4797</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4790</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>4791</v>
+        <v>4799</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4792</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>4793</v>
+        <v>4801</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>104</v>
@@ -56306,15 +56398,15 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>4794</v>
+        <v>4802</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4795</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>4796</v>
+        <v>4804</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>558</v>
@@ -56322,39 +56414,39 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>4797</v>
+        <v>4805</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4798</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>4799</v>
+        <v>4807</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4800</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>4801</v>
+        <v>4809</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4802</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B30" s="4" t="s">
-        <v>4803</v>
+        <v>4811</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4804</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>4805</v>
+        <v>4813</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>131</v>
@@ -56362,15 +56454,15 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B32" s="4" t="s">
-        <v>4806</v>
+        <v>4814</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4807</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>4808</v>
+        <v>4816</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
@@ -56378,7 +56470,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>4809</v>
+        <v>4817</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>140</v>
@@ -56386,298 +56478,298 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>4810</v>
+        <v>4818</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4811</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B36" s="4" t="s">
-        <v>4812</v>
+        <v>4820</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4813</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>4814</v>
+        <v>4822</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4815</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B38" s="4" t="s">
-        <v>4816</v>
+        <v>4824</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4817</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>4818</v>
+        <v>4826</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>4819</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B40" s="4" t="s">
-        <v>4820</v>
+        <v>4828</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4821</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>4822</v>
+        <v>4830</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>4823</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B42" s="4" t="s">
-        <v>4824</v>
+        <v>4832</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>4825</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>4826</v>
+        <v>4834</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>4827</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B44" s="4" t="s">
-        <v>4828</v>
+        <v>4836</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4829</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>4830</v>
+        <v>4838</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>4831</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B46" s="4" t="s">
-        <v>4832</v>
+        <v>4840</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4739</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>4833</v>
+        <v>4841</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>4834</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>4835</v>
+        <v>4843</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4834</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>4836</v>
+        <v>4844</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>4739</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B50" s="4" t="s">
-        <v>4837</v>
+        <v>4845</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4838</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>4839</v>
+        <v>4847</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>4840</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B52" s="4" t="s">
-        <v>4841</v>
+        <v>4849</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4842</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>4843</v>
+        <v>4851</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>4745</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B54" s="4" t="s">
-        <v>4844</v>
+        <v>4852</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>4747</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>4845</v>
+        <v>4853</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>4846</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>4847</v>
+        <v>4855</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4848</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>4849</v>
+        <v>4857</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>4850</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B58" s="4" t="s">
-        <v>4851</v>
+        <v>4859</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4852</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B59" s="3" t="s">
-        <v>4853</v>
+        <v>4861</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>4854</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B60" s="4" t="s">
-        <v>4855</v>
+        <v>4863</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4856</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>4857</v>
+        <v>4865</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>4858</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B62" s="4" t="s">
-        <v>4859</v>
+        <v>4867</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4860</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>4861</v>
+        <v>4869</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>4862</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B64" s="4" t="s">
-        <v>4863</v>
+        <v>4871</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4864</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>4865</v>
+        <v>4873</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>4866</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B66" s="4" t="s">
-        <v>4867</v>
+        <v>4875</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4868</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B67" s="3" t="s">
-        <v>4869</v>
+        <v>4877</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>4870</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B68" s="4" t="s">
-        <v>4871</v>
+        <v>4879</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4872</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B69" s="3" t="s">
-        <v>4873</v>
+        <v>4881</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>4874</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B70" s="4" t="s">
-        <v>4875</v>
+        <v>4883</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>4876</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B71" s="3" t="s">
-        <v>4877</v>
+        <v>4885</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>4878</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="11.1993" customHeight="1">

--- a/data-raw/data/Diplome.xlsx
+++ b/data-raw/data/Diplome.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12301" uniqueCount="4887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12311" uniqueCount="4891">
   <si>
     <t>Diplôme (code)</t>
   </si>
@@ -7707,6 +7707,12 @@
     <t>M2P STME PROCEDES PROD</t>
   </si>
   <si>
+    <t>HUAPA</t>
+  </si>
+  <si>
+    <t>D.U ACCOMP DU PATIENT</t>
+  </si>
+  <si>
     <t>HUBIN</t>
   </si>
   <si>
@@ -12214,6 +12220,12 @@
   </si>
   <si>
     <t>DU PSYCHO MED GEN</t>
+  </si>
+  <si>
+    <t>RUPMS</t>
+  </si>
+  <si>
+    <t>DIU PRATIQUES MEDICALES</t>
   </si>
   <si>
     <t>RUPNPA</t>
@@ -14787,7 +14799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2423"/>
+  <dimension ref="A1:F2425"/>
   <cols>
     <col min="1" max="1" width="21.3903986666667" customWidth="1"/>
     <col min="2" max="6" width="10.7163133333333" customWidth="1"/>
@@ -37042,10 +37054,10 @@
         <v>68</v>
       </c>
       <c r="E1310" s="4" t="s">
-        <v>193</v>
+        <v>675</v>
       </c>
       <c r="F1310" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1311" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37059,10 +37071,10 @@
         <v>68</v>
       </c>
       <c r="E1311" s="3" t="s">
-        <v>675</v>
+        <v>193</v>
       </c>
       <c r="F1311" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1312" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37229,10 +37241,10 @@
         <v>68</v>
       </c>
       <c r="E1321" s="3" t="s">
-        <v>193</v>
+        <v>675</v>
       </c>
       <c r="F1321" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1322" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37246,10 +37258,10 @@
         <v>68</v>
       </c>
       <c r="E1322" s="4" t="s">
-        <v>675</v>
+        <v>193</v>
       </c>
       <c r="F1322" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1323" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37311,10 +37323,10 @@
         <v>2600</v>
       </c>
       <c r="D1326" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1326" s="4" t="s">
-        <v>2601</v>
+        <v>675</v>
       </c>
       <c r="F1326" s="4" t="s">
         <v>9</v>
@@ -37322,19 +37334,19 @@
     </row>
     <row r="1327" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1327" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1327" s="3" t="s">
         <v>2602</v>
       </c>
-      <c r="C1327" s="3" t="s">
+      <c r="D1327" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1327" s="3" t="s">
         <v>2603</v>
       </c>
-      <c r="D1327" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1327" s="3" t="s">
-        <v>1028</v>
-      </c>
       <c r="F1327" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1328" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37362,13 +37374,13 @@
         <v>2607</v>
       </c>
       <c r="D1329" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1329" s="3" t="s">
-        <v>24</v>
+        <v>1028</v>
       </c>
       <c r="F1329" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1330" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37402,7 +37414,7 @@
         <v>24</v>
       </c>
       <c r="F1331" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1332" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37433,10 +37445,10 @@
         <v>7</v>
       </c>
       <c r="E1333" s="3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F1333" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1334" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37450,7 +37462,7 @@
         <v>7</v>
       </c>
       <c r="E1334" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F1334" s="4" t="s">
         <v>68</v>
@@ -37461,7 +37473,7 @@
         <v>2618</v>
       </c>
       <c r="C1335" s="3" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="D1335" s="3" t="s">
         <v>7</v>
@@ -37470,15 +37482,15 @@
         <v>71</v>
       </c>
       <c r="F1335" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1336" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1336" s="4" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C1336" s="4" t="s">
         <v>2619</v>
-      </c>
-      <c r="C1336" s="4" t="s">
-        <v>2620</v>
       </c>
       <c r="D1336" s="4" t="s">
         <v>7</v>
@@ -37487,7 +37499,7 @@
         <v>71</v>
       </c>
       <c r="F1336" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1337" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -37495,7 +37507,7 @@
         <v>2621</v>
       </c>
       <c r="C1337" s="3" t="s">
-        <v>2617</v>
+        <v>2622</v>
       </c>
       <c r="D1337" s="3" t="s">
         <v>7</v>
@@ -37509,16 +37521,16 @@
     </row>
     <row r="1338" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1338" s="4" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="C1338" s="4" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="D1338" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1338" s="4" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F1338" s="4" t="s">
         <v>68</v>
@@ -37535,7 +37547,7 @@
         <v>7</v>
       </c>
       <c r="E1339" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F1339" s="3" t="s">
         <v>68</v>
@@ -37586,7 +37598,7 @@
         <v>7</v>
       </c>
       <c r="E1342" s="4" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F1342" s="4" t="s">
         <v>68</v>
@@ -37682,7 +37694,7 @@
         <v>2642</v>
       </c>
       <c r="C1348" s="4" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="D1348" s="4" t="s">
         <v>7</v>
@@ -37696,10 +37708,10 @@
     </row>
     <row r="1349" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1349" s="3" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="C1349" s="3" t="s">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="D1349" s="3" t="s">
         <v>7</v>
@@ -37713,10 +37725,10 @@
     </row>
     <row r="1350" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1350" s="4" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="C1350" s="4" t="s">
-        <v>2645</v>
+        <v>2633</v>
       </c>
       <c r="D1350" s="4" t="s">
         <v>7</v>
@@ -37852,7 +37864,7 @@
         <v>2660</v>
       </c>
       <c r="C1358" s="4" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="D1358" s="4" t="s">
         <v>7</v>
@@ -37866,10 +37878,10 @@
     </row>
     <row r="1359" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1359" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1359" s="3" t="s">
         <v>2661</v>
-      </c>
-      <c r="C1359" s="3" t="s">
-        <v>2659</v>
       </c>
       <c r="D1359" s="3" t="s">
         <v>7</v>
@@ -37883,10 +37895,10 @@
     </row>
     <row r="1360" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1360" s="4" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="C1360" s="4" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="D1360" s="4" t="s">
         <v>7</v>
@@ -38005,7 +38017,7 @@
         <v>2676</v>
       </c>
       <c r="C1367" s="3" t="s">
-        <v>2653</v>
+        <v>2677</v>
       </c>
       <c r="D1367" s="3" t="s">
         <v>7</v>
@@ -38019,10 +38031,10 @@
     </row>
     <row r="1368" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1368" s="4" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="C1368" s="4" t="s">
-        <v>2678</v>
+        <v>2655</v>
       </c>
       <c r="D1368" s="4" t="s">
         <v>7</v>
@@ -38039,7 +38051,7 @@
         <v>2679</v>
       </c>
       <c r="C1369" s="3" t="s">
-        <v>2635</v>
+        <v>2680</v>
       </c>
       <c r="D1369" s="3" t="s">
         <v>7</v>
@@ -38053,10 +38065,10 @@
     </row>
     <row r="1370" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1370" s="4" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="C1370" s="4" t="s">
-        <v>2681</v>
+        <v>2637</v>
       </c>
       <c r="D1370" s="4" t="s">
         <v>7</v>
@@ -38243,7 +38255,7 @@
         <v>2702</v>
       </c>
       <c r="C1381" s="3" t="s">
-        <v>2633</v>
+        <v>2703</v>
       </c>
       <c r="D1381" s="3" t="s">
         <v>7</v>
@@ -38257,10 +38269,10 @@
     </row>
     <row r="1382" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1382" s="4" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="C1382" s="4" t="s">
-        <v>2704</v>
+        <v>2635</v>
       </c>
       <c r="D1382" s="4" t="s">
         <v>7</v>
@@ -38362,7 +38374,7 @@
         <v>2715</v>
       </c>
       <c r="C1388" s="4" t="s">
-        <v>2665</v>
+        <v>2716</v>
       </c>
       <c r="D1388" s="4" t="s">
         <v>7</v>
@@ -38376,10 +38388,10 @@
     </row>
     <row r="1389" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1389" s="3" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="C1389" s="3" t="s">
-        <v>2717</v>
+        <v>2667</v>
       </c>
       <c r="D1389" s="3" t="s">
         <v>7</v>
@@ -38447,7 +38459,7 @@
         <v>2724</v>
       </c>
       <c r="C1393" s="3" t="s">
-        <v>2678</v>
+        <v>2725</v>
       </c>
       <c r="D1393" s="3" t="s">
         <v>7</v>
@@ -38461,10 +38473,10 @@
     </row>
     <row r="1394" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1394" s="4" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="C1394" s="4" t="s">
-        <v>2726</v>
+        <v>2680</v>
       </c>
       <c r="D1394" s="4" t="s">
         <v>7</v>
@@ -38481,7 +38493,7 @@
         <v>2727</v>
       </c>
       <c r="C1395" s="3" t="s">
-        <v>2693</v>
+        <v>2728</v>
       </c>
       <c r="D1395" s="3" t="s">
         <v>7</v>
@@ -38495,10 +38507,10 @@
     </row>
     <row r="1396" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1396" s="4" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="C1396" s="4" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="D1396" s="4" t="s">
         <v>7</v>
@@ -38512,7 +38524,7 @@
     </row>
     <row r="1397" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1397" s="3" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="C1397" s="3" t="s">
         <v>2699</v>
@@ -38529,10 +38541,10 @@
     </row>
     <row r="1398" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1398" s="4" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="C1398" s="4" t="s">
-        <v>2731</v>
+        <v>2701</v>
       </c>
       <c r="D1398" s="4" t="s">
         <v>7</v>
@@ -38566,7 +38578,7 @@
         <v>2734</v>
       </c>
       <c r="C1400" s="4" t="s">
-        <v>2721</v>
+        <v>2735</v>
       </c>
       <c r="D1400" s="4" t="s">
         <v>7</v>
@@ -38580,10 +38592,10 @@
     </row>
     <row r="1401" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1401" s="3" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C1401" s="3" t="s">
-        <v>2736</v>
+        <v>2723</v>
       </c>
       <c r="D1401" s="3" t="s">
         <v>7</v>
@@ -38600,7 +38612,7 @@
         <v>2737</v>
       </c>
       <c r="C1402" s="4" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="D1402" s="4" t="s">
         <v>7</v>
@@ -38614,10 +38626,10 @@
     </row>
     <row r="1403" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1403" s="3" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1403" s="3" t="s">
         <v>2738</v>
-      </c>
-      <c r="C1403" s="3" t="s">
-        <v>2731</v>
       </c>
       <c r="D1403" s="3" t="s">
         <v>7</v>
@@ -38631,10 +38643,10 @@
     </row>
     <row r="1404" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1404" s="4" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="C1404" s="4" t="s">
-        <v>2740</v>
+        <v>2733</v>
       </c>
       <c r="D1404" s="4" t="s">
         <v>7</v>
@@ -38702,7 +38714,7 @@
         <v>2747</v>
       </c>
       <c r="C1408" s="4" t="s">
-        <v>2701</v>
+        <v>2748</v>
       </c>
       <c r="D1408" s="4" t="s">
         <v>7</v>
@@ -38716,10 +38728,10 @@
     </row>
     <row r="1409" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1409" s="3" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="C1409" s="3" t="s">
-        <v>2749</v>
+        <v>2703</v>
       </c>
       <c r="D1409" s="3" t="s">
         <v>7</v>
@@ -38821,7 +38833,7 @@
         <v>2760</v>
       </c>
       <c r="C1415" s="3" t="s">
-        <v>2740</v>
+        <v>2761</v>
       </c>
       <c r="D1415" s="3" t="s">
         <v>7</v>
@@ -38835,10 +38847,10 @@
     </row>
     <row r="1416" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1416" s="4" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="C1416" s="4" t="s">
-        <v>2762</v>
+        <v>2742</v>
       </c>
       <c r="D1416" s="4" t="s">
         <v>7</v>
@@ -38872,7 +38884,7 @@
         <v>2765</v>
       </c>
       <c r="C1418" s="4" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="D1418" s="4" t="s">
         <v>7</v>
@@ -38886,10 +38898,10 @@
     </row>
     <row r="1419" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1419" s="3" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C1419" s="3" t="s">
         <v>2766</v>
-      </c>
-      <c r="C1419" s="3" t="s">
-        <v>2767</v>
       </c>
       <c r="D1419" s="3" t="s">
         <v>7</v>
@@ -38923,7 +38935,7 @@
         <v>2770</v>
       </c>
       <c r="C1421" s="3" t="s">
-        <v>2744</v>
+        <v>2771</v>
       </c>
       <c r="D1421" s="3" t="s">
         <v>7</v>
@@ -38937,10 +38949,10 @@
     </row>
     <row r="1422" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1422" s="4" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="C1422" s="4" t="s">
-        <v>2663</v>
+        <v>2746</v>
       </c>
       <c r="D1422" s="4" t="s">
         <v>7</v>
@@ -38954,10 +38966,10 @@
     </row>
     <row r="1423" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1423" s="3" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="C1423" s="3" t="s">
-        <v>2699</v>
+        <v>2665</v>
       </c>
       <c r="D1423" s="3" t="s">
         <v>7</v>
@@ -38971,10 +38983,10 @@
     </row>
     <row r="1424" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1424" s="4" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="C1424" s="4" t="s">
-        <v>2744</v>
+        <v>2701</v>
       </c>
       <c r="D1424" s="4" t="s">
         <v>7</v>
@@ -38988,10 +39000,10 @@
     </row>
     <row r="1425" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1425" s="3" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="C1425" s="3" t="s">
-        <v>2775</v>
+        <v>2746</v>
       </c>
       <c r="D1425" s="3" t="s">
         <v>7</v>
@@ -39028,13 +39040,13 @@
         <v>2779</v>
       </c>
       <c r="D1427" s="3" t="s">
-        <v>1034</v>
+        <v>7</v>
       </c>
       <c r="E1427" s="3" t="s">
-        <v>1031</v>
+        <v>134</v>
       </c>
       <c r="F1427" s="3" t="s">
-        <v>1036</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1428" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -39045,27 +39057,27 @@
         <v>2781</v>
       </c>
       <c r="D1428" s="4" t="s">
-        <v>7</v>
+        <v>1034</v>
       </c>
       <c r="E1428" s="4" t="s">
-        <v>2782</v>
+        <v>1031</v>
       </c>
       <c r="F1428" s="4" t="s">
-        <v>7</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1429" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1429" s="3" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1429" s="3" t="s">
         <v>2783</v>
       </c>
-      <c r="C1429" s="3" t="s">
+      <c r="D1429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1429" s="3" t="s">
         <v>2784</v>
-      </c>
-      <c r="D1429" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1429" s="3" t="s">
-        <v>2782</v>
       </c>
       <c r="F1429" s="3" t="s">
         <v>7</v>
@@ -39082,7 +39094,7 @@
         <v>7</v>
       </c>
       <c r="E1430" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1430" s="4" t="s">
         <v>7</v>
@@ -39099,7 +39111,7 @@
         <v>7</v>
       </c>
       <c r="E1431" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1431" s="3" t="s">
         <v>7</v>
@@ -39110,13 +39122,13 @@
         <v>2789</v>
       </c>
       <c r="C1432" s="4" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="D1432" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1432" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1432" s="4" t="s">
         <v>7</v>
@@ -39124,16 +39136,16 @@
     </row>
     <row r="1433" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1433" s="3" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="C1433" s="3" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="D1433" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1433" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1433" s="3" t="s">
         <v>7</v>
@@ -39150,7 +39162,7 @@
         <v>7</v>
       </c>
       <c r="E1434" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1434" s="4" t="s">
         <v>7</v>
@@ -39167,7 +39179,7 @@
         <v>7</v>
       </c>
       <c r="E1435" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1435" s="3" t="s">
         <v>7</v>
@@ -39184,7 +39196,7 @@
         <v>7</v>
       </c>
       <c r="E1436" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1436" s="4" t="s">
         <v>7</v>
@@ -39201,7 +39213,7 @@
         <v>7</v>
       </c>
       <c r="E1437" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1437" s="3" t="s">
         <v>7</v>
@@ -39218,7 +39230,7 @@
         <v>7</v>
       </c>
       <c r="E1438" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1438" s="4" t="s">
         <v>7</v>
@@ -39235,7 +39247,7 @@
         <v>7</v>
       </c>
       <c r="E1439" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1439" s="3" t="s">
         <v>7</v>
@@ -39252,7 +39264,7 @@
         <v>7</v>
       </c>
       <c r="E1440" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1440" s="4" t="s">
         <v>7</v>
@@ -39269,7 +39281,7 @@
         <v>7</v>
       </c>
       <c r="E1441" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1441" s="3" t="s">
         <v>7</v>
@@ -39286,7 +39298,7 @@
         <v>7</v>
       </c>
       <c r="E1442" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1442" s="4" t="s">
         <v>7</v>
@@ -39303,7 +39315,7 @@
         <v>7</v>
       </c>
       <c r="E1443" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1443" s="3" t="s">
         <v>7</v>
@@ -39320,7 +39332,7 @@
         <v>7</v>
       </c>
       <c r="E1444" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1444" s="4" t="s">
         <v>7</v>
@@ -39337,7 +39349,7 @@
         <v>7</v>
       </c>
       <c r="E1445" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1445" s="3" t="s">
         <v>7</v>
@@ -39354,7 +39366,7 @@
         <v>7</v>
       </c>
       <c r="E1446" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1446" s="4" t="s">
         <v>7</v>
@@ -39371,7 +39383,7 @@
         <v>7</v>
       </c>
       <c r="E1447" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1447" s="3" t="s">
         <v>7</v>
@@ -39388,7 +39400,7 @@
         <v>7</v>
       </c>
       <c r="E1448" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1448" s="4" t="s">
         <v>7</v>
@@ -39405,7 +39417,7 @@
         <v>7</v>
       </c>
       <c r="E1449" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1449" s="3" t="s">
         <v>7</v>
@@ -39422,7 +39434,7 @@
         <v>7</v>
       </c>
       <c r="E1450" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1450" s="4" t="s">
         <v>7</v>
@@ -39433,13 +39445,13 @@
         <v>2826</v>
       </c>
       <c r="C1451" s="3" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="D1451" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1451" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1451" s="3" t="s">
         <v>7</v>
@@ -39447,16 +39459,16 @@
     </row>
     <row r="1452" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1452" s="4" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C1452" s="4" t="s">
         <v>2827</v>
       </c>
-      <c r="C1452" s="4" t="s">
-        <v>2828</v>
-      </c>
       <c r="D1452" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1452" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1452" s="4" t="s">
         <v>7</v>
@@ -39473,7 +39485,7 @@
         <v>7</v>
       </c>
       <c r="E1453" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1453" s="3" t="s">
         <v>7</v>
@@ -39490,7 +39502,7 @@
         <v>7</v>
       </c>
       <c r="E1454" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1454" s="4" t="s">
         <v>7</v>
@@ -39507,7 +39519,7 @@
         <v>7</v>
       </c>
       <c r="E1455" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1455" s="3" t="s">
         <v>7</v>
@@ -39524,7 +39536,7 @@
         <v>7</v>
       </c>
       <c r="E1456" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1456" s="4" t="s">
         <v>7</v>
@@ -39541,7 +39553,7 @@
         <v>7</v>
       </c>
       <c r="E1457" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1457" s="3" t="s">
         <v>7</v>
@@ -39558,7 +39570,7 @@
         <v>7</v>
       </c>
       <c r="E1458" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1458" s="4" t="s">
         <v>7</v>
@@ -39575,7 +39587,7 @@
         <v>7</v>
       </c>
       <c r="E1459" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1459" s="3" t="s">
         <v>7</v>
@@ -39592,7 +39604,7 @@
         <v>7</v>
       </c>
       <c r="E1460" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1460" s="4" t="s">
         <v>7</v>
@@ -39609,7 +39621,7 @@
         <v>7</v>
       </c>
       <c r="E1461" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1461" s="3" t="s">
         <v>7</v>
@@ -39626,7 +39638,7 @@
         <v>7</v>
       </c>
       <c r="E1462" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1462" s="4" t="s">
         <v>7</v>
@@ -39643,7 +39655,7 @@
         <v>7</v>
       </c>
       <c r="E1463" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1463" s="3" t="s">
         <v>7</v>
@@ -39660,7 +39672,7 @@
         <v>7</v>
       </c>
       <c r="E1464" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1464" s="4" t="s">
         <v>7</v>
@@ -39677,7 +39689,7 @@
         <v>7</v>
       </c>
       <c r="E1465" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1465" s="3" t="s">
         <v>7</v>
@@ -39694,7 +39706,7 @@
         <v>7</v>
       </c>
       <c r="E1466" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1466" s="4" t="s">
         <v>7</v>
@@ -39711,7 +39723,7 @@
         <v>7</v>
       </c>
       <c r="E1467" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1467" s="3" t="s">
         <v>7</v>
@@ -39728,7 +39740,7 @@
         <v>7</v>
       </c>
       <c r="E1468" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1468" s="4" t="s">
         <v>7</v>
@@ -39745,7 +39757,7 @@
         <v>7</v>
       </c>
       <c r="E1469" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1469" s="3" t="s">
         <v>7</v>
@@ -39762,7 +39774,7 @@
         <v>7</v>
       </c>
       <c r="E1470" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1470" s="4" t="s">
         <v>7</v>
@@ -39779,7 +39791,7 @@
         <v>7</v>
       </c>
       <c r="E1471" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1471" s="3" t="s">
         <v>7</v>
@@ -39796,7 +39808,7 @@
         <v>7</v>
       </c>
       <c r="E1472" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1472" s="4" t="s">
         <v>7</v>
@@ -39813,7 +39825,7 @@
         <v>7</v>
       </c>
       <c r="E1473" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1473" s="3" t="s">
         <v>7</v>
@@ -39830,7 +39842,7 @@
         <v>7</v>
       </c>
       <c r="E1474" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1474" s="4" t="s">
         <v>7</v>
@@ -39847,7 +39859,7 @@
         <v>7</v>
       </c>
       <c r="E1475" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1475" s="3" t="s">
         <v>7</v>
@@ -39864,7 +39876,7 @@
         <v>7</v>
       </c>
       <c r="E1476" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1476" s="4" t="s">
         <v>7</v>
@@ -39881,7 +39893,7 @@
         <v>7</v>
       </c>
       <c r="E1477" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1477" s="3" t="s">
         <v>7</v>
@@ -39898,7 +39910,7 @@
         <v>7</v>
       </c>
       <c r="E1478" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1478" s="4" t="s">
         <v>7</v>
@@ -39915,7 +39927,7 @@
         <v>7</v>
       </c>
       <c r="E1479" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1479" s="3" t="s">
         <v>7</v>
@@ -39932,7 +39944,7 @@
         <v>7</v>
       </c>
       <c r="E1480" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1480" s="4" t="s">
         <v>7</v>
@@ -39949,7 +39961,7 @@
         <v>7</v>
       </c>
       <c r="E1481" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1481" s="3" t="s">
         <v>7</v>
@@ -39966,7 +39978,7 @@
         <v>7</v>
       </c>
       <c r="E1482" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1482" s="4" t="s">
         <v>7</v>
@@ -39983,7 +39995,7 @@
         <v>7</v>
       </c>
       <c r="E1483" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1483" s="3" t="s">
         <v>7</v>
@@ -40000,7 +40012,7 @@
         <v>7</v>
       </c>
       <c r="E1484" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1484" s="4" t="s">
         <v>7</v>
@@ -40017,7 +40029,7 @@
         <v>7</v>
       </c>
       <c r="E1485" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1485" s="3" t="s">
         <v>7</v>
@@ -40034,7 +40046,7 @@
         <v>7</v>
       </c>
       <c r="E1486" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F1486" s="4" t="s">
         <v>7</v>
@@ -40048,13 +40060,13 @@
         <v>2898</v>
       </c>
       <c r="D1487" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1487" s="3" t="s">
-        <v>1028</v>
+        <v>2784</v>
       </c>
       <c r="F1487" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1488" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -40071,7 +40083,7 @@
         <v>1028</v>
       </c>
       <c r="F1488" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1489" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -40088,7 +40100,7 @@
         <v>1028</v>
       </c>
       <c r="F1489" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1490" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -40303,7 +40315,7 @@
         <v>2928</v>
       </c>
       <c r="D1502" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1502" s="4" t="s">
         <v>1028</v>
@@ -40320,13 +40332,13 @@
         <v>2930</v>
       </c>
       <c r="D1503" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E1503" s="3" t="s">
-        <v>193</v>
+        <v>1028</v>
       </c>
       <c r="F1503" s="3" t="s">
-        <v>1022</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1504" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -40337,13 +40349,13 @@
         <v>2932</v>
       </c>
       <c r="D1504" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1504" s="4" t="s">
-        <v>1028</v>
+        <v>193</v>
       </c>
       <c r="F1504" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1505" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -40422,13 +40434,13 @@
         <v>2942</v>
       </c>
       <c r="D1509" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E1509" s="3" t="s">
-        <v>995</v>
+        <v>1028</v>
       </c>
       <c r="F1509" s="3" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1510" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -41275,7 +41287,7 @@
         <v>7</v>
       </c>
       <c r="E1559" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="F1559" s="3" t="s">
         <v>9</v>
@@ -41921,7 +41933,7 @@
         <v>7</v>
       </c>
       <c r="E1597" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="F1597" s="3" t="s">
         <v>9</v>
@@ -42176,7 +42188,7 @@
         <v>7</v>
       </c>
       <c r="E1612" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="F1612" s="4" t="s">
         <v>9</v>
@@ -42839,7 +42851,7 @@
         <v>7</v>
       </c>
       <c r="E1651" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F1651" s="3" t="s">
         <v>9</v>
@@ -42901,7 +42913,7 @@
         <v>3233</v>
       </c>
       <c r="C1655" s="3" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="D1655" s="3" t="s">
         <v>7</v>
@@ -42915,10 +42927,10 @@
     </row>
     <row r="1656" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1656" s="4" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C1656" s="4" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="D1656" s="4" t="s">
         <v>7</v>
@@ -42935,7 +42947,7 @@
         <v>3236</v>
       </c>
       <c r="C1657" s="3" t="s">
-        <v>3232</v>
+        <v>3237</v>
       </c>
       <c r="D1657" s="3" t="s">
         <v>7</v>
@@ -42949,10 +42961,10 @@
     </row>
     <row r="1658" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1658" s="4" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C1658" s="4" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="D1658" s="4" t="s">
         <v>7</v>
@@ -42986,7 +42998,7 @@
         <v>3241</v>
       </c>
       <c r="C1660" s="4" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="D1660" s="4" t="s">
         <v>7</v>
@@ -43000,10 +43012,10 @@
     </row>
     <row r="1661" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1661" s="3" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C1661" s="3" t="s">
         <v>3242</v>
-      </c>
-      <c r="C1661" s="3" t="s">
-        <v>3243</v>
       </c>
       <c r="D1661" s="3" t="s">
         <v>7</v>
@@ -43250,7 +43262,7 @@
         <v>1007</v>
       </c>
       <c r="F1675" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1676" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -43267,7 +43279,7 @@
         <v>1007</v>
       </c>
       <c r="F1676" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1677" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -43414,10 +43426,10 @@
         <v>3291</v>
       </c>
       <c r="D1685" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1685" s="3" t="s">
-        <v>675</v>
+        <v>1007</v>
       </c>
       <c r="F1685" s="3" t="s">
         <v>9</v>
@@ -43570,10 +43582,10 @@
         <v>68</v>
       </c>
       <c r="E1694" s="4" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F1694" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1695" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -43587,10 +43599,10 @@
         <v>68</v>
       </c>
       <c r="E1695" s="3" t="s">
-        <v>675</v>
+        <v>1028</v>
       </c>
       <c r="F1695" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1696" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -43842,7 +43854,7 @@
         <v>68</v>
       </c>
       <c r="E1710" s="4" t="s">
-        <v>1035</v>
+        <v>675</v>
       </c>
       <c r="F1710" s="4" t="s">
         <v>9</v>
@@ -43859,7 +43871,7 @@
         <v>68</v>
       </c>
       <c r="E1711" s="3" t="s">
-        <v>3344</v>
+        <v>1035</v>
       </c>
       <c r="F1711" s="3" t="s">
         <v>9</v>
@@ -43867,16 +43879,16 @@
     </row>
     <row r="1712" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1712" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C1712" s="4" t="s">
         <v>3345</v>
       </c>
-      <c r="C1712" s="4" t="s">
+      <c r="D1712" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1712" s="4" t="s">
         <v>3346</v>
-      </c>
-      <c r="D1712" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1712" s="4" t="s">
-        <v>1035</v>
       </c>
       <c r="F1712" s="4" t="s">
         <v>9</v>
@@ -43893,7 +43905,7 @@
         <v>68</v>
       </c>
       <c r="E1713" s="3" t="s">
-        <v>3349</v>
+        <v>1035</v>
       </c>
       <c r="F1713" s="3" t="s">
         <v>9</v>
@@ -43901,16 +43913,16 @@
     </row>
     <row r="1714" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1714" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C1714" s="4" t="s">
         <v>3350</v>
       </c>
-      <c r="C1714" s="4" t="s">
+      <c r="D1714" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1714" s="4" t="s">
         <v>3351</v>
-      </c>
-      <c r="D1714" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1714" s="4" t="s">
-        <v>3349</v>
       </c>
       <c r="F1714" s="4" t="s">
         <v>9</v>
@@ -43927,7 +43939,7 @@
         <v>68</v>
       </c>
       <c r="E1715" s="3" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="F1715" s="3" t="s">
         <v>9</v>
@@ -43941,10 +43953,10 @@
         <v>3355</v>
       </c>
       <c r="D1716" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1716" s="4" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
       <c r="F1716" s="4" t="s">
         <v>9</v>
@@ -43952,16 +43964,16 @@
     </row>
     <row r="1717" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1717" s="3" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1717" s="3" t="s">
         <v>3357</v>
       </c>
-      <c r="C1717" s="3" t="s">
+      <c r="D1717" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1717" s="3" t="s">
         <v>3358</v>
-      </c>
-      <c r="D1717" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1717" s="3" t="s">
-        <v>3356</v>
       </c>
       <c r="F1717" s="3" t="s">
         <v>9</v>
@@ -43978,7 +43990,7 @@
         <v>7</v>
       </c>
       <c r="E1718" s="4" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="F1718" s="4" t="s">
         <v>9</v>
@@ -43986,16 +43998,16 @@
     </row>
     <row r="1719" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1719" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C1719" s="3" t="s">
         <v>3362</v>
       </c>
-      <c r="C1719" s="3" t="s">
+      <c r="D1719" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1719" s="3" t="s">
         <v>3363</v>
-      </c>
-      <c r="D1719" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1719" s="3" t="s">
-        <v>3356</v>
       </c>
       <c r="F1719" s="3" t="s">
         <v>9</v>
@@ -44012,7 +44024,7 @@
         <v>7</v>
       </c>
       <c r="E1720" s="4" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="F1720" s="4" t="s">
         <v>9</v>
@@ -44029,7 +44041,7 @@
         <v>7</v>
       </c>
       <c r="E1721" s="3" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="F1721" s="3" t="s">
         <v>9</v>
@@ -44046,7 +44058,7 @@
         <v>7</v>
       </c>
       <c r="E1722" s="4" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="F1722" s="4" t="s">
         <v>9</v>
@@ -44063,7 +44075,7 @@
         <v>7</v>
       </c>
       <c r="E1723" s="3" t="s">
-        <v>3356</v>
+        <v>3363</v>
       </c>
       <c r="F1723" s="3" t="s">
         <v>9</v>
@@ -44080,7 +44092,7 @@
         <v>7</v>
       </c>
       <c r="E1724" s="4" t="s">
-        <v>3356</v>
+        <v>3358</v>
       </c>
       <c r="F1724" s="4" t="s">
         <v>9</v>
@@ -44097,7 +44109,7 @@
         <v>7</v>
       </c>
       <c r="E1725" s="3" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="F1725" s="3" t="s">
         <v>9</v>
@@ -44114,7 +44126,7 @@
         <v>7</v>
       </c>
       <c r="E1726" s="4" t="s">
-        <v>3356</v>
+        <v>3363</v>
       </c>
       <c r="F1726" s="4" t="s">
         <v>9</v>
@@ -44131,7 +44143,7 @@
         <v>7</v>
       </c>
       <c r="E1727" s="3" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="F1727" s="3" t="s">
         <v>9</v>
@@ -44148,7 +44160,7 @@
         <v>7</v>
       </c>
       <c r="E1728" s="4" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="F1728" s="4" t="s">
         <v>9</v>
@@ -44165,7 +44177,7 @@
         <v>7</v>
       </c>
       <c r="E1729" s="3" t="s">
-        <v>3384</v>
+        <v>3363</v>
       </c>
       <c r="F1729" s="3" t="s">
         <v>9</v>
@@ -44173,16 +44185,16 @@
     </row>
     <row r="1730" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1730" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1730" s="4" t="s">
         <v>3385</v>
       </c>
-      <c r="C1730" s="4" t="s">
-        <v>3154</v>
-      </c>
       <c r="D1730" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1730" s="4" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="F1730" s="4" t="s">
         <v>9</v>
@@ -44190,16 +44202,16 @@
     </row>
     <row r="1731" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1731" s="3" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1731" s="3" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D1731" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1731" s="3" t="s">
         <v>3386</v>
-      </c>
-      <c r="C1731" s="3" t="s">
-        <v>3387</v>
-      </c>
-      <c r="D1731" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1731" s="3" t="s">
-        <v>3384</v>
       </c>
       <c r="F1731" s="3" t="s">
         <v>9</v>
@@ -44216,7 +44228,7 @@
         <v>7</v>
       </c>
       <c r="E1732" s="4" t="s">
-        <v>3390</v>
+        <v>3386</v>
       </c>
       <c r="F1732" s="4" t="s">
         <v>9</v>
@@ -44224,16 +44236,16 @@
     </row>
     <row r="1733" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1733" s="3" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C1733" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="C1733" s="3" t="s">
+      <c r="D1733" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1733" s="3" t="s">
         <v>3392</v>
-      </c>
-      <c r="D1733" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1733" s="3" t="s">
-        <v>3384</v>
       </c>
       <c r="F1733" s="3" t="s">
         <v>9</v>
@@ -44250,7 +44262,7 @@
         <v>7</v>
       </c>
       <c r="E1734" s="4" t="s">
-        <v>3356</v>
+        <v>3386</v>
       </c>
       <c r="F1734" s="4" t="s">
         <v>9</v>
@@ -44267,7 +44279,7 @@
         <v>7</v>
       </c>
       <c r="E1735" s="3" t="s">
-        <v>3349</v>
+        <v>3358</v>
       </c>
       <c r="F1735" s="3" t="s">
         <v>9</v>
@@ -44281,10 +44293,10 @@
         <v>3398</v>
       </c>
       <c r="D1736" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1736" s="4" t="s">
-        <v>675</v>
+        <v>3351</v>
       </c>
       <c r="F1736" s="4" t="s">
         <v>9</v>
@@ -44298,30 +44310,30 @@
         <v>3400</v>
       </c>
       <c r="D1737" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1737" s="3" t="s">
-        <v>3401</v>
+        <v>675</v>
       </c>
       <c r="F1737" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1738" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1738" s="4" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C1738" s="4" t="s">
         <v>3402</v>
       </c>
-      <c r="C1738" s="4" t="s">
+      <c r="D1738" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1738" s="4" t="s">
         <v>3403</v>
       </c>
-      <c r="D1738" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1738" s="4" t="s">
-        <v>3349</v>
-      </c>
       <c r="F1738" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1739" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44335,7 +44347,7 @@
         <v>68</v>
       </c>
       <c r="E1739" s="3" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="F1739" s="3" t="s">
         <v>9</v>
@@ -44352,7 +44364,7 @@
         <v>68</v>
       </c>
       <c r="E1740" s="4" t="s">
-        <v>675</v>
+        <v>3351</v>
       </c>
       <c r="F1740" s="4" t="s">
         <v>9</v>
@@ -44366,13 +44378,13 @@
         <v>3409</v>
       </c>
       <c r="D1741" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1741" s="3" t="s">
-        <v>3401</v>
+        <v>675</v>
       </c>
       <c r="F1741" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1742" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44386,10 +44398,10 @@
         <v>7</v>
       </c>
       <c r="E1742" s="4" t="s">
-        <v>1031</v>
+        <v>3403</v>
       </c>
       <c r="F1742" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1743" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44397,13 +44409,13 @@
         <v>3412</v>
       </c>
       <c r="C1743" s="3" t="s">
-        <v>3411</v>
+        <v>3413</v>
       </c>
       <c r="D1743" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1743" s="3" t="s">
-        <v>3401</v>
+        <v>1031</v>
       </c>
       <c r="F1743" s="3" t="s">
         <v>9</v>
@@ -44411,19 +44423,19 @@
     </row>
     <row r="1744" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1744" s="4" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C1744" s="4" t="s">
         <v>3413</v>
       </c>
-      <c r="C1744" s="4" t="s">
-        <v>3414</v>
-      </c>
       <c r="D1744" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1744" s="4" t="s">
-        <v>2551</v>
+        <v>3403</v>
       </c>
       <c r="F1744" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1745" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44434,13 +44446,13 @@
         <v>3416</v>
       </c>
       <c r="D1745" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1745" s="3" t="s">
-        <v>675</v>
+        <v>2551</v>
       </c>
       <c r="F1745" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1746" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44471,10 +44483,10 @@
         <v>68</v>
       </c>
       <c r="E1747" s="3" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F1747" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1748" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44488,10 +44500,10 @@
         <v>68</v>
       </c>
       <c r="E1748" s="4" t="s">
-        <v>675</v>
+        <v>1028</v>
       </c>
       <c r="F1748" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1749" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44743,10 +44755,10 @@
         <v>68</v>
       </c>
       <c r="E1763" s="3" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F1763" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1764" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44760,10 +44772,10 @@
         <v>68</v>
       </c>
       <c r="E1764" s="4" t="s">
-        <v>675</v>
+        <v>1028</v>
       </c>
       <c r="F1764" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1765" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44811,10 +44823,10 @@
         <v>68</v>
       </c>
       <c r="E1767" s="3" t="s">
-        <v>193</v>
+        <v>675</v>
       </c>
       <c r="F1767" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1768" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44828,10 +44840,10 @@
         <v>68</v>
       </c>
       <c r="E1768" s="4" t="s">
-        <v>675</v>
+        <v>193</v>
       </c>
       <c r="F1768" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1769" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44910,10 +44922,10 @@
         <v>3472</v>
       </c>
       <c r="D1773" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1773" s="3" t="s">
-        <v>8</v>
+        <v>675</v>
       </c>
       <c r="F1773" s="3" t="s">
         <v>9</v>
@@ -44981,10 +44993,10 @@
         <v>7</v>
       </c>
       <c r="E1777" s="3" t="s">
-        <v>1018</v>
+        <v>8</v>
       </c>
       <c r="F1777" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1778" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -44998,10 +45010,10 @@
         <v>7</v>
       </c>
       <c r="E1778" s="4" t="s">
-        <v>24</v>
+        <v>1018</v>
       </c>
       <c r="F1778" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1779" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45032,7 +45044,7 @@
         <v>7</v>
       </c>
       <c r="E1780" s="4" t="s">
-        <v>1004</v>
+        <v>24</v>
       </c>
       <c r="F1780" s="4" t="s">
         <v>9</v>
@@ -45043,7 +45055,7 @@
         <v>3487</v>
       </c>
       <c r="C1781" s="3" t="s">
-        <v>3154</v>
+        <v>3488</v>
       </c>
       <c r="D1781" s="3" t="s">
         <v>7</v>
@@ -45057,10 +45069,10 @@
     </row>
     <row r="1782" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1782" s="4" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="C1782" s="4" t="s">
-        <v>3489</v>
+        <v>3156</v>
       </c>
       <c r="D1782" s="4" t="s">
         <v>7</v>
@@ -45077,7 +45089,7 @@
         <v>3490</v>
       </c>
       <c r="C1783" s="3" t="s">
-        <v>3190</v>
+        <v>3491</v>
       </c>
       <c r="D1783" s="3" t="s">
         <v>7</v>
@@ -45091,10 +45103,10 @@
     </row>
     <row r="1784" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1784" s="4" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="C1784" s="4" t="s">
-        <v>3204</v>
+        <v>3192</v>
       </c>
       <c r="D1784" s="4" t="s">
         <v>7</v>
@@ -45108,10 +45120,10 @@
     </row>
     <row r="1785" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1785" s="3" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="C1785" s="3" t="s">
-        <v>3493</v>
+        <v>3206</v>
       </c>
       <c r="D1785" s="3" t="s">
         <v>7</v>
@@ -45230,24 +45242,24 @@
         <v>3506</v>
       </c>
       <c r="C1792" s="4" t="s">
-        <v>1558</v>
+        <v>3507</v>
       </c>
       <c r="D1792" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1792" s="4" t="s">
-        <v>24</v>
+        <v>1004</v>
       </c>
       <c r="F1792" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1793" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1793" s="3" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C1793" s="3" t="s">
-        <v>3508</v>
+        <v>1558</v>
       </c>
       <c r="D1793" s="3" t="s">
         <v>7</v>
@@ -45267,13 +45279,13 @@
         <v>3510</v>
       </c>
       <c r="D1794" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1794" s="4" t="s">
-        <v>675</v>
+        <v>24</v>
       </c>
       <c r="F1794" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1795" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45301,13 +45313,13 @@
         <v>3514</v>
       </c>
       <c r="D1796" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1796" s="4" t="s">
-        <v>1018</v>
+        <v>675</v>
       </c>
       <c r="F1796" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1797" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45321,10 +45333,10 @@
         <v>7</v>
       </c>
       <c r="E1797" s="3" t="s">
-        <v>67</v>
+        <v>1018</v>
       </c>
       <c r="F1797" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1798" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45338,10 +45350,10 @@
         <v>7</v>
       </c>
       <c r="E1798" s="4" t="s">
-        <v>1004</v>
+        <v>67</v>
       </c>
       <c r="F1798" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1799" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45389,10 +45401,10 @@
         <v>7</v>
       </c>
       <c r="E1801" s="3" t="s">
-        <v>107</v>
+        <v>1004</v>
       </c>
       <c r="F1801" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1802" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45406,10 +45418,10 @@
         <v>7</v>
       </c>
       <c r="E1802" s="4" t="s">
-        <v>1004</v>
+        <v>107</v>
       </c>
       <c r="F1802" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1803" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45468,7 +45480,7 @@
         <v>3533</v>
       </c>
       <c r="C1806" s="4" t="s">
-        <v>3172</v>
+        <v>3534</v>
       </c>
       <c r="D1806" s="4" t="s">
         <v>7</v>
@@ -45482,10 +45494,10 @@
     </row>
     <row r="1807" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1807" s="3" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="C1807" s="3" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="D1807" s="3" t="s">
         <v>7</v>
@@ -45499,10 +45511,10 @@
     </row>
     <row r="1808" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1808" s="4" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="C1808" s="4" t="s">
-        <v>3536</v>
+        <v>3180</v>
       </c>
       <c r="D1808" s="4" t="s">
         <v>7</v>
@@ -45525,10 +45537,10 @@
         <v>7</v>
       </c>
       <c r="E1809" s="3" t="s">
-        <v>107</v>
+        <v>1004</v>
       </c>
       <c r="F1809" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1810" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45542,10 +45554,10 @@
         <v>7</v>
       </c>
       <c r="E1810" s="4" t="s">
-        <v>1004</v>
+        <v>107</v>
       </c>
       <c r="F1810" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1811" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45638,7 +45650,7 @@
         <v>3551</v>
       </c>
       <c r="C1816" s="4" t="s">
-        <v>3182</v>
+        <v>3552</v>
       </c>
       <c r="D1816" s="4" t="s">
         <v>7</v>
@@ -45652,10 +45664,10 @@
     </row>
     <row r="1817" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1817" s="3" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="C1817" s="3" t="s">
-        <v>3553</v>
+        <v>3184</v>
       </c>
       <c r="D1817" s="3" t="s">
         <v>7</v>
@@ -45706,7 +45718,7 @@
         <v>3558</v>
       </c>
       <c r="C1820" s="4" t="s">
-        <v>3192</v>
+        <v>3559</v>
       </c>
       <c r="D1820" s="4" t="s">
         <v>7</v>
@@ -45720,7 +45732,7 @@
     </row>
     <row r="1821" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1821" s="3" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="C1821" s="3" t="s">
         <v>3194</v>
@@ -45737,10 +45749,10 @@
     </row>
     <row r="1822" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1822" s="4" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C1822" s="4" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="D1822" s="4" t="s">
         <v>7</v>
@@ -45754,10 +45766,10 @@
     </row>
     <row r="1823" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1823" s="3" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="C1823" s="3" t="s">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="D1823" s="3" t="s">
         <v>7</v>
@@ -45771,10 +45783,10 @@
     </row>
     <row r="1824" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1824" s="4" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="C1824" s="4" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="D1824" s="4" t="s">
         <v>7</v>
@@ -45788,7 +45800,7 @@
     </row>
     <row r="1825" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1825" s="3" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="C1825" s="3" t="s">
         <v>3216</v>
@@ -45805,10 +45817,10 @@
     </row>
     <row r="1826" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1826" s="4" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C1826" s="4" t="s">
-        <v>3565</v>
+        <v>3218</v>
       </c>
       <c r="D1826" s="4" t="s">
         <v>7</v>
@@ -45825,7 +45837,7 @@
         <v>3566</v>
       </c>
       <c r="C1827" s="3" t="s">
-        <v>3220</v>
+        <v>3567</v>
       </c>
       <c r="D1827" s="3" t="s">
         <v>7</v>
@@ -45839,19 +45851,19 @@
     </row>
     <row r="1828" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1828" s="4" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="C1828" s="4" t="s">
-        <v>3568</v>
+        <v>3222</v>
       </c>
       <c r="D1828" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1828" s="4" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="F1828" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1829" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45865,7 +45877,7 @@
         <v>7</v>
       </c>
       <c r="E1829" s="3" t="s">
-        <v>107</v>
+        <v>1018</v>
       </c>
       <c r="F1829" s="3" t="s">
         <v>68</v>
@@ -45882,10 +45894,10 @@
         <v>7</v>
       </c>
       <c r="E1830" s="4" t="s">
-        <v>1004</v>
+        <v>107</v>
       </c>
       <c r="F1830" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1831" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45893,30 +45905,30 @@
         <v>3573</v>
       </c>
       <c r="C1831" s="3" t="s">
-        <v>3570</v>
+        <v>3574</v>
       </c>
       <c r="D1831" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1831" s="3" t="s">
-        <v>107</v>
+        <v>1004</v>
       </c>
       <c r="F1831" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1832" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1832" s="4" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="C1832" s="4" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
       <c r="D1832" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1832" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F1832" s="4" t="s">
         <v>68</v>
@@ -45933,10 +45945,10 @@
         <v>7</v>
       </c>
       <c r="E1833" s="3" t="s">
-        <v>1031</v>
+        <v>104</v>
       </c>
       <c r="F1833" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1834" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -45950,7 +45962,7 @@
         <v>7</v>
       </c>
       <c r="E1834" s="4" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="F1834" s="4" t="s">
         <v>9</v>
@@ -45984,7 +45996,7 @@
         <v>7</v>
       </c>
       <c r="E1836" s="4" t="s">
-        <v>2424</v>
+        <v>1018</v>
       </c>
       <c r="F1836" s="4" t="s">
         <v>9</v>
@@ -46018,7 +46030,7 @@
         <v>7</v>
       </c>
       <c r="E1838" s="4" t="s">
-        <v>24</v>
+        <v>2424</v>
       </c>
       <c r="F1838" s="4" t="s">
         <v>9</v>
@@ -46035,7 +46047,7 @@
         <v>7</v>
       </c>
       <c r="E1839" s="3" t="s">
-        <v>2424</v>
+        <v>24</v>
       </c>
       <c r="F1839" s="3" t="s">
         <v>9</v>
@@ -46080,13 +46092,13 @@
         <v>3594</v>
       </c>
       <c r="C1842" s="4" t="s">
-        <v>3484</v>
+        <v>3595</v>
       </c>
       <c r="D1842" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1842" s="4" t="s">
-        <v>24</v>
+        <v>2424</v>
       </c>
       <c r="F1842" s="4" t="s">
         <v>9</v>
@@ -46094,10 +46106,10 @@
     </row>
     <row r="1843" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1843" s="3" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="C1843" s="3" t="s">
-        <v>3596</v>
+        <v>3486</v>
       </c>
       <c r="D1843" s="3" t="s">
         <v>7</v>
@@ -46137,7 +46149,7 @@
         <v>7</v>
       </c>
       <c r="E1845" s="3" t="s">
-        <v>1018</v>
+        <v>24</v>
       </c>
       <c r="F1845" s="3" t="s">
         <v>9</v>
@@ -46151,10 +46163,10 @@
         <v>3602</v>
       </c>
       <c r="D1846" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1846" s="4" t="s">
-        <v>675</v>
+        <v>1018</v>
       </c>
       <c r="F1846" s="4" t="s">
         <v>9</v>
@@ -46304,7 +46316,7 @@
         <v>3620</v>
       </c>
       <c r="D1855" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1855" s="3" t="s">
         <v>675</v>
@@ -46321,7 +46333,7 @@
         <v>3622</v>
       </c>
       <c r="D1856" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E1856" s="4" t="s">
         <v>675</v>
@@ -47015,7 +47027,7 @@
         <v>3703</v>
       </c>
       <c r="C1897" s="3" t="s">
-        <v>3700</v>
+        <v>3704</v>
       </c>
       <c r="D1897" s="3" t="s">
         <v>68</v>
@@ -47029,10 +47041,10 @@
     </row>
     <row r="1898" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1898" s="4" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="C1898" s="4" t="s">
-        <v>3705</v>
+        <v>3702</v>
       </c>
       <c r="D1898" s="4" t="s">
         <v>68</v>
@@ -47171,7 +47183,7 @@
         <v>3721</v>
       </c>
       <c r="D1906" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1906" s="4" t="s">
         <v>675</v>
@@ -47188,7 +47200,7 @@
         <v>3723</v>
       </c>
       <c r="D1907" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E1907" s="3" t="s">
         <v>675</v>
@@ -47222,13 +47234,13 @@
         <v>3727</v>
       </c>
       <c r="D1909" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1909" s="3" t="s">
-        <v>2551</v>
+        <v>675</v>
       </c>
       <c r="F1909" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1910" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47242,10 +47254,10 @@
         <v>7</v>
       </c>
       <c r="E1910" s="4" t="s">
-        <v>8</v>
+        <v>2551</v>
       </c>
       <c r="F1910" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1911" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47293,7 +47305,7 @@
         <v>7</v>
       </c>
       <c r="E1913" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F1913" s="3" t="s">
         <v>9</v>
@@ -47321,13 +47333,13 @@
         <v>3738</v>
       </c>
       <c r="C1915" s="3" t="s">
-        <v>1003</v>
+        <v>3739</v>
       </c>
       <c r="D1915" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1915" s="3" t="s">
-        <v>1004</v>
+        <v>24</v>
       </c>
       <c r="F1915" s="3" t="s">
         <v>9</v>
@@ -47335,53 +47347,53 @@
     </row>
     <row r="1916" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1916" s="4" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="C1916" s="4" t="s">
-        <v>3740</v>
+        <v>1003</v>
       </c>
       <c r="D1916" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1916" s="4" t="s">
-        <v>3741</v>
+        <v>1004</v>
       </c>
       <c r="F1916" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1917" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1917" s="3" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C1917" s="3" t="s">
         <v>3742</v>
       </c>
-      <c r="C1917" s="3" t="s">
-        <v>3514</v>
-      </c>
       <c r="D1917" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1917" s="3" t="s">
-        <v>1018</v>
+        <v>3743</v>
       </c>
       <c r="F1917" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1918" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1918" s="4" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="C1918" s="4" t="s">
-        <v>3744</v>
+        <v>3516</v>
       </c>
       <c r="D1918" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1918" s="4" t="s">
-        <v>24</v>
+        <v>1018</v>
       </c>
       <c r="F1918" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1919" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47398,7 +47410,7 @@
         <v>24</v>
       </c>
       <c r="F1919" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1920" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47415,7 +47427,7 @@
         <v>24</v>
       </c>
       <c r="F1920" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1921" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47446,7 +47458,7 @@
         <v>7</v>
       </c>
       <c r="E1922" s="4" t="s">
-        <v>3753</v>
+        <v>24</v>
       </c>
       <c r="F1922" s="4" t="s">
         <v>68</v>
@@ -47454,16 +47466,16 @@
     </row>
     <row r="1923" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1923" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C1923" s="3" t="s">
         <v>3754</v>
       </c>
-      <c r="C1923" s="3" t="s">
+      <c r="D1923" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1923" s="3" t="s">
         <v>3755</v>
-      </c>
-      <c r="D1923" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1923" s="3" t="s">
-        <v>3753</v>
       </c>
       <c r="F1923" s="3" t="s">
         <v>68</v>
@@ -47477,13 +47489,13 @@
         <v>3757</v>
       </c>
       <c r="D1924" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1924" s="4" t="s">
-        <v>675</v>
+        <v>3755</v>
       </c>
       <c r="F1924" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1925" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47528,10 +47540,10 @@
         <v>3763</v>
       </c>
       <c r="D1927" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E1927" s="3" t="s">
-        <v>1004</v>
+        <v>675</v>
       </c>
       <c r="F1927" s="3" t="s">
         <v>9</v>
@@ -47548,27 +47560,27 @@
         <v>7</v>
       </c>
       <c r="E1928" s="4" t="s">
-        <v>3766</v>
+        <v>1004</v>
       </c>
       <c r="F1928" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1929" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1929" s="3" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C1929" s="3" t="s">
         <v>3767</v>
       </c>
-      <c r="C1929" s="3" t="s">
+      <c r="D1929" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1929" s="3" t="s">
         <v>3768</v>
       </c>
-      <c r="D1929" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1929" s="3" t="s">
-        <v>3766</v>
-      </c>
       <c r="F1929" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1930" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47582,7 +47594,7 @@
         <v>7</v>
       </c>
       <c r="E1930" s="4" t="s">
-        <v>3766</v>
+        <v>3768</v>
       </c>
       <c r="F1930" s="4" t="s">
         <v>68</v>
@@ -47599,7 +47611,7 @@
         <v>7</v>
       </c>
       <c r="E1931" s="3" t="s">
-        <v>3766</v>
+        <v>3768</v>
       </c>
       <c r="F1931" s="3" t="s">
         <v>68</v>
@@ -47610,30 +47622,30 @@
         <v>3773</v>
       </c>
       <c r="C1932" s="4" t="s">
-        <v>3514</v>
+        <v>3774</v>
       </c>
       <c r="D1932" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1932" s="4" t="s">
-        <v>1018</v>
+        <v>3768</v>
       </c>
       <c r="F1932" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1933" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1933" s="3" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="C1933" s="3" t="s">
-        <v>3775</v>
+        <v>3516</v>
       </c>
       <c r="D1933" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1933" s="3" t="s">
-        <v>3753</v>
+        <v>1018</v>
       </c>
       <c r="F1933" s="3" t="s">
         <v>7</v>
@@ -47650,10 +47662,10 @@
         <v>7</v>
       </c>
       <c r="E1934" s="4" t="s">
-        <v>2424</v>
+        <v>3755</v>
       </c>
       <c r="F1934" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1935" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47667,10 +47679,10 @@
         <v>7</v>
       </c>
       <c r="E1935" s="3" t="s">
-        <v>107</v>
+        <v>2424</v>
       </c>
       <c r="F1935" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1936" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47735,10 +47747,10 @@
         <v>7</v>
       </c>
       <c r="E1939" s="3" t="s">
-        <v>1004</v>
+        <v>107</v>
       </c>
       <c r="F1939" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1940" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47752,10 +47764,10 @@
         <v>7</v>
       </c>
       <c r="E1940" s="4" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="F1940" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1941" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47769,7 +47781,7 @@
         <v>7</v>
       </c>
       <c r="E1941" s="3" t="s">
-        <v>3741</v>
+        <v>1018</v>
       </c>
       <c r="F1941" s="3" t="s">
         <v>68</v>
@@ -47780,13 +47792,13 @@
         <v>3792</v>
       </c>
       <c r="C1942" s="4" t="s">
-        <v>3791</v>
+        <v>3793</v>
       </c>
       <c r="D1942" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1942" s="4" t="s">
-        <v>3741</v>
+        <v>3743</v>
       </c>
       <c r="F1942" s="4" t="s">
         <v>68</v>
@@ -47794,19 +47806,19 @@
     </row>
     <row r="1943" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1943" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C1943" s="3" t="s">
         <v>3793</v>
       </c>
-      <c r="C1943" s="3" t="s">
-        <v>3794</v>
-      </c>
       <c r="D1943" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1943" s="3" t="s">
-        <v>1031</v>
+        <v>3743</v>
       </c>
       <c r="F1943" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1944" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -47820,7 +47832,7 @@
         <v>7</v>
       </c>
       <c r="E1944" s="4" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="F1944" s="4" t="s">
         <v>9</v>
@@ -47831,7 +47843,7 @@
         <v>3797</v>
       </c>
       <c r="C1945" s="3" t="s">
-        <v>3581</v>
+        <v>3798</v>
       </c>
       <c r="D1945" s="3" t="s">
         <v>7</v>
@@ -47845,16 +47857,16 @@
     </row>
     <row r="1946" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1946" s="4" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="C1946" s="4" t="s">
-        <v>3799</v>
+        <v>3583</v>
       </c>
       <c r="D1946" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1946" s="4" t="s">
-        <v>3800</v>
+        <v>1018</v>
       </c>
       <c r="F1946" s="4" t="s">
         <v>9</v>
@@ -47862,16 +47874,16 @@
     </row>
     <row r="1947" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1947" s="3" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C1947" s="3" t="s">
         <v>3801</v>
       </c>
-      <c r="C1947" s="3" t="s">
+      <c r="D1947" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1947" s="3" t="s">
         <v>3802</v>
-      </c>
-      <c r="D1947" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1947" s="3" t="s">
-        <v>2424</v>
       </c>
       <c r="F1947" s="3" t="s">
         <v>9</v>
@@ -47922,7 +47934,7 @@
         <v>7</v>
       </c>
       <c r="E1950" s="4" t="s">
-        <v>24</v>
+        <v>2424</v>
       </c>
       <c r="F1950" s="4" t="s">
         <v>9</v>
@@ -47939,7 +47951,7 @@
         <v>7</v>
       </c>
       <c r="E1951" s="3" t="s">
-        <v>2424</v>
+        <v>24</v>
       </c>
       <c r="F1951" s="3" t="s">
         <v>9</v>
@@ -48035,13 +48047,13 @@
         <v>3821</v>
       </c>
       <c r="C1957" s="3" t="s">
-        <v>3737</v>
+        <v>3822</v>
       </c>
       <c r="D1957" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1957" s="3" t="s">
-        <v>24</v>
+        <v>2424</v>
       </c>
       <c r="F1957" s="3" t="s">
         <v>9</v>
@@ -48049,16 +48061,16 @@
     </row>
     <row r="1958" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1958" s="4" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="C1958" s="4" t="s">
-        <v>3796</v>
+        <v>3739</v>
       </c>
       <c r="D1958" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E1958" s="4" t="s">
-        <v>1018</v>
+        <v>24</v>
       </c>
       <c r="F1958" s="4" t="s">
         <v>9</v>
@@ -48066,16 +48078,16 @@
     </row>
     <row r="1959" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B1959" s="3" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="C1959" s="3" t="s">
-        <v>3824</v>
+        <v>3798</v>
       </c>
       <c r="D1959" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E1959" s="3" t="s">
-        <v>675</v>
+        <v>1018</v>
       </c>
       <c r="F1959" s="3" t="s">
         <v>9</v>
@@ -48163,7 +48175,7 @@
         <v>675</v>
       </c>
       <c r="F1964" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1965" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -48180,7 +48192,7 @@
         <v>675</v>
       </c>
       <c r="F1965" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1966" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -48208,7 +48220,7 @@
         <v>3840</v>
       </c>
       <c r="D1967" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1967" s="3" t="s">
         <v>675</v>
@@ -48225,7 +48237,7 @@
         <v>3842</v>
       </c>
       <c r="D1968" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E1968" s="4" t="s">
         <v>675</v>
@@ -48248,7 +48260,7 @@
         <v>675</v>
       </c>
       <c r="F1969" s="3" t="s">
-        <v>1025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1970" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -48265,7 +48277,7 @@
         <v>675</v>
       </c>
       <c r="F1970" s="4" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1971" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -48463,7 +48475,7 @@
         <v>3870</v>
       </c>
       <c r="D1982" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E1982" s="4" t="s">
         <v>675</v>
@@ -48480,7 +48492,7 @@
         <v>3872</v>
       </c>
       <c r="D1983" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E1983" s="3" t="s">
         <v>675</v>
@@ -48783,7 +48795,7 @@
         <v>3907</v>
       </c>
       <c r="C2001" s="3" t="s">
-        <v>3902</v>
+        <v>3908</v>
       </c>
       <c r="D2001" s="3" t="s">
         <v>68</v>
@@ -48797,10 +48809,10 @@
     </row>
     <row r="2002" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2002" s="4" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="C2002" s="4" t="s">
-        <v>3909</v>
+        <v>3904</v>
       </c>
       <c r="D2002" s="4" t="s">
         <v>68</v>
@@ -49041,13 +49053,13 @@
         <v>3937</v>
       </c>
       <c r="D2016" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2016" s="4" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F2016" s="4" t="s">
-        <v>1025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2017" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -49058,13 +49070,13 @@
         <v>3939</v>
       </c>
       <c r="D2017" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2017" s="3" t="s">
-        <v>675</v>
+        <v>1028</v>
       </c>
       <c r="F2017" s="3" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2018" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -49106,7 +49118,7 @@
         <v>3944</v>
       </c>
       <c r="C2020" s="4" t="s">
-        <v>3428</v>
+        <v>3945</v>
       </c>
       <c r="D2020" s="4" t="s">
         <v>68</v>
@@ -49120,10 +49132,10 @@
     </row>
     <row r="2021" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2021" s="3" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="C2021" s="3" t="s">
-        <v>3946</v>
+        <v>3430</v>
       </c>
       <c r="D2021" s="3" t="s">
         <v>68</v>
@@ -49262,7 +49274,7 @@
         <v>3962</v>
       </c>
       <c r="D2029" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2029" s="3" t="s">
         <v>675</v>
@@ -49279,7 +49291,7 @@
         <v>3964</v>
       </c>
       <c r="D2030" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2030" s="4" t="s">
         <v>675</v>
@@ -49415,13 +49427,13 @@
         <v>3980</v>
       </c>
       <c r="D2038" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2038" s="4" t="s">
-        <v>193</v>
+        <v>675</v>
       </c>
       <c r="F2038" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2039" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -49432,13 +49444,13 @@
         <v>3982</v>
       </c>
       <c r="D2039" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2039" s="3" t="s">
-        <v>675</v>
+        <v>193</v>
       </c>
       <c r="F2039" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2040" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -49619,7 +49631,7 @@
         <v>4004</v>
       </c>
       <c r="D2050" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2050" s="4" t="s">
         <v>675</v>
@@ -49636,7 +49648,7 @@
         <v>4006</v>
       </c>
       <c r="D2051" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2051" s="3" t="s">
         <v>675</v>
@@ -49650,7 +49662,7 @@
         <v>4007</v>
       </c>
       <c r="C2052" s="4" t="s">
-        <v>4000</v>
+        <v>4008</v>
       </c>
       <c r="D2052" s="4" t="s">
         <v>68</v>
@@ -49664,10 +49676,10 @@
     </row>
     <row r="2053" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2053" s="3" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C2053" s="3" t="s">
-        <v>4009</v>
+        <v>4002</v>
       </c>
       <c r="D2053" s="3" t="s">
         <v>68</v>
@@ -49772,7 +49784,7 @@
         <v>4021</v>
       </c>
       <c r="D2059" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2059" s="3" t="s">
         <v>675</v>
@@ -49789,7 +49801,7 @@
         <v>4023</v>
       </c>
       <c r="D2060" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2060" s="4" t="s">
         <v>675</v>
@@ -50197,7 +50209,7 @@
         <v>4071</v>
       </c>
       <c r="D2084" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2084" s="4" t="s">
         <v>675</v>
@@ -50231,7 +50243,7 @@
         <v>4075</v>
       </c>
       <c r="D2086" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2086" s="4" t="s">
         <v>675</v>
@@ -50302,10 +50314,10 @@
         <v>68</v>
       </c>
       <c r="E2090" s="4" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F2090" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2091" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50336,10 +50348,10 @@
         <v>68</v>
       </c>
       <c r="E2092" s="4" t="s">
-        <v>675</v>
+        <v>1028</v>
       </c>
       <c r="F2092" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2093" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50407,7 +50419,7 @@
         <v>675</v>
       </c>
       <c r="F2096" s="4" t="s">
-        <v>1025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2097" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50441,7 +50453,7 @@
         <v>675</v>
       </c>
       <c r="F2098" s="4" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2099" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50639,7 +50651,7 @@
         <v>4123</v>
       </c>
       <c r="D2110" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2110" s="4" t="s">
         <v>675</v>
@@ -50656,13 +50668,13 @@
         <v>4125</v>
       </c>
       <c r="D2111" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E2111" s="3" t="s">
-        <v>1028</v>
+        <v>675</v>
       </c>
       <c r="F2111" s="3" t="s">
-        <v>1025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2112" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50673,7 +50685,7 @@
         <v>4127</v>
       </c>
       <c r="D2112" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E2112" s="4" t="s">
         <v>675</v>
@@ -50693,10 +50705,10 @@
         <v>9</v>
       </c>
       <c r="E2113" s="3" t="s">
-        <v>675</v>
+        <v>1028</v>
       </c>
       <c r="F2113" s="3" t="s">
-        <v>9</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2114" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50724,13 +50736,13 @@
         <v>4133</v>
       </c>
       <c r="D2115" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2115" s="3" t="s">
-        <v>2551</v>
+        <v>675</v>
       </c>
       <c r="F2115" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2116" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50741,13 +50753,13 @@
         <v>4135</v>
       </c>
       <c r="D2116" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2116" s="4" t="s">
-        <v>3766</v>
+        <v>675</v>
       </c>
       <c r="F2116" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2117" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50761,7 +50773,7 @@
         <v>7</v>
       </c>
       <c r="E2117" s="3" t="s">
-        <v>3766</v>
+        <v>2551</v>
       </c>
       <c r="F2117" s="3" t="s">
         <v>68</v>
@@ -50778,10 +50790,10 @@
         <v>7</v>
       </c>
       <c r="E2118" s="4" t="s">
-        <v>3766</v>
+        <v>3768</v>
       </c>
       <c r="F2118" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2119" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50789,50 +50801,50 @@
         <v>4140</v>
       </c>
       <c r="C2119" s="3" t="s">
-        <v>1027</v>
+        <v>4141</v>
       </c>
       <c r="D2119" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2119" s="3" t="s">
-        <v>1028</v>
+        <v>3768</v>
       </c>
       <c r="F2119" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2120" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2120" s="4" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
       <c r="C2120" s="4" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="D2120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2120" s="4" t="s">
-        <v>8</v>
+        <v>3768</v>
       </c>
       <c r="F2120" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2121" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2121" s="3" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="C2121" s="3" t="s">
-        <v>4144</v>
+        <v>1027</v>
       </c>
       <c r="D2121" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2121" s="3" t="s">
-        <v>24</v>
+        <v>1028</v>
       </c>
       <c r="F2121" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2122" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50846,7 +50858,7 @@
         <v>7</v>
       </c>
       <c r="E2122" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F2122" s="4" t="s">
         <v>9</v>
@@ -50863,10 +50875,10 @@
         <v>7</v>
       </c>
       <c r="E2123" s="3" t="s">
-        <v>1371</v>
+        <v>24</v>
       </c>
       <c r="F2123" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2124" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -50874,30 +50886,30 @@
         <v>4149</v>
       </c>
       <c r="C2124" s="4" t="s">
-        <v>4148</v>
+        <v>4150</v>
       </c>
       <c r="D2124" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2124" s="4" t="s">
-        <v>1371</v>
+        <v>24</v>
       </c>
       <c r="F2124" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2125" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2125" s="3" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="C2125" s="3" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="D2125" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2125" s="3" t="s">
-        <v>55</v>
+        <v>1371</v>
       </c>
       <c r="F2125" s="3" t="s">
         <v>7</v>
@@ -50905,16 +50917,16 @@
     </row>
     <row r="2126" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2126" s="4" t="s">
+        <v>4153</v>
+      </c>
+      <c r="C2126" s="4" t="s">
         <v>4152</v>
       </c>
-      <c r="C2126" s="4" t="s">
-        <v>4151</v>
-      </c>
       <c r="D2126" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2126" s="4" t="s">
-        <v>55</v>
+        <v>1371</v>
       </c>
       <c r="F2126" s="4" t="s">
         <v>7</v>
@@ -50922,10 +50934,10 @@
     </row>
     <row r="2127" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2127" s="3" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="C2127" s="3" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="D2127" s="3" t="s">
         <v>7</v>
@@ -50939,10 +50951,10 @@
     </row>
     <row r="2128" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2128" s="4" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C2128" s="4" t="s">
         <v>4155</v>
-      </c>
-      <c r="C2128" s="4" t="s">
-        <v>4156</v>
       </c>
       <c r="D2128" s="4" t="s">
         <v>7</v>
@@ -51010,13 +51022,13 @@
         <v>4163</v>
       </c>
       <c r="C2132" s="4" t="s">
-        <v>4148</v>
+        <v>4164</v>
       </c>
       <c r="D2132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2132" s="4" t="s">
-        <v>1371</v>
+        <v>55</v>
       </c>
       <c r="F2132" s="4" t="s">
         <v>7</v>
@@ -51024,10 +51036,10 @@
     </row>
     <row r="2133" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2133" s="3" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
       <c r="C2133" s="3" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="D2133" s="3" t="s">
         <v>7</v>
@@ -51041,16 +51053,16 @@
     </row>
     <row r="2134" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2134" s="4" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="C2134" s="4" t="s">
-        <v>4167</v>
+        <v>4152</v>
       </c>
       <c r="D2134" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2134" s="4" t="s">
-        <v>55</v>
+        <v>1371</v>
       </c>
       <c r="F2134" s="4" t="s">
         <v>7</v>
@@ -51084,7 +51096,7 @@
         <v>7</v>
       </c>
       <c r="E2136" s="4" t="s">
-        <v>362</v>
+        <v>55</v>
       </c>
       <c r="F2136" s="4" t="s">
         <v>7</v>
@@ -51101,7 +51113,7 @@
         <v>7</v>
       </c>
       <c r="E2137" s="3" t="s">
-        <v>1374</v>
+        <v>55</v>
       </c>
       <c r="F2137" s="3" t="s">
         <v>7</v>
@@ -51118,7 +51130,7 @@
         <v>7</v>
       </c>
       <c r="E2138" s="4" t="s">
-        <v>55</v>
+        <v>362</v>
       </c>
       <c r="F2138" s="4" t="s">
         <v>7</v>
@@ -51129,13 +51141,13 @@
         <v>4176</v>
       </c>
       <c r="C2139" s="3" t="s">
-        <v>4171</v>
+        <v>4177</v>
       </c>
       <c r="D2139" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2139" s="3" t="s">
-        <v>362</v>
+        <v>1374</v>
       </c>
       <c r="F2139" s="3" t="s">
         <v>7</v>
@@ -51143,10 +51155,10 @@
     </row>
     <row r="2140" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2140" s="4" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="C2140" s="4" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="D2140" s="4" t="s">
         <v>7</v>
@@ -51160,10 +51172,10 @@
     </row>
     <row r="2141" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2141" s="3" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="C2141" s="3" t="s">
-        <v>4180</v>
+        <v>4175</v>
       </c>
       <c r="D2141" s="3" t="s">
         <v>7</v>
@@ -51186,7 +51198,7 @@
         <v>7</v>
       </c>
       <c r="E2142" s="4" t="s">
-        <v>362</v>
+        <v>55</v>
       </c>
       <c r="F2142" s="4" t="s">
         <v>7</v>
@@ -51203,7 +51215,7 @@
         <v>7</v>
       </c>
       <c r="E2143" s="3" t="s">
-        <v>1374</v>
+        <v>362</v>
       </c>
       <c r="F2143" s="3" t="s">
         <v>7</v>
@@ -51220,10 +51232,10 @@
         <v>7</v>
       </c>
       <c r="E2144" s="4" t="s">
-        <v>124</v>
+        <v>362</v>
       </c>
       <c r="F2144" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2145" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51237,10 +51249,10 @@
         <v>7</v>
       </c>
       <c r="E2145" s="3" t="s">
-        <v>137</v>
+        <v>1374</v>
       </c>
       <c r="F2145" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2146" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51254,7 +51266,7 @@
         <v>7</v>
       </c>
       <c r="E2146" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F2146" s="4" t="s">
         <v>68</v>
@@ -51271,10 +51283,10 @@
         <v>7</v>
       </c>
       <c r="E2147" s="3" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="F2147" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2148" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51285,10 +51297,10 @@
         <v>4194</v>
       </c>
       <c r="D2148" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2148" s="4" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="F2148" s="4" t="s">
         <v>68</v>
@@ -51305,7 +51317,7 @@
         <v>7</v>
       </c>
       <c r="E2149" s="3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F2149" s="3" t="s">
         <v>9</v>
@@ -51319,10 +51331,10 @@
         <v>4198</v>
       </c>
       <c r="D2150" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2150" s="4" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F2150" s="4" t="s">
         <v>68</v>
@@ -51342,7 +51354,7 @@
         <v>24</v>
       </c>
       <c r="F2151" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2152" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51376,7 +51388,7 @@
         <v>24</v>
       </c>
       <c r="F2153" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2154" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51410,7 +51422,7 @@
         <v>24</v>
       </c>
       <c r="F2155" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2156" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51427,7 +51439,7 @@
         <v>24</v>
       </c>
       <c r="F2156" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2157" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51441,7 +51453,7 @@
         <v>7</v>
       </c>
       <c r="E2157" s="3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F2157" s="3" t="s">
         <v>68</v>
@@ -51475,7 +51487,7 @@
         <v>7</v>
       </c>
       <c r="E2159" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F2159" s="3" t="s">
         <v>68</v>
@@ -51486,24 +51498,24 @@
         <v>4217</v>
       </c>
       <c r="C2160" s="4" t="s">
-        <v>4216</v>
+        <v>4218</v>
       </c>
       <c r="D2160" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2160" s="4" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F2160" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2161" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2161" s="3" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="C2161" s="3" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="D2161" s="3" t="s">
         <v>7</v>
@@ -51512,15 +51524,15 @@
         <v>71</v>
       </c>
       <c r="F2161" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2162" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2162" s="4" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C2162" s="4" t="s">
         <v>4220</v>
-      </c>
-      <c r="C2162" s="4" t="s">
-        <v>4221</v>
       </c>
       <c r="D2162" s="4" t="s">
         <v>7</v>
@@ -51529,7 +51541,7 @@
         <v>71</v>
       </c>
       <c r="F2162" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2163" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51628,10 +51640,10 @@
         <v>7</v>
       </c>
       <c r="E2168" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2168" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2169" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51648,7 +51660,7 @@
         <v>71</v>
       </c>
       <c r="F2169" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2170" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51656,13 +51668,13 @@
         <v>4236</v>
       </c>
       <c r="C2170" s="4" t="s">
-        <v>4235</v>
+        <v>4237</v>
       </c>
       <c r="D2170" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2170" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2170" s="4" t="s">
         <v>68</v>
@@ -51670,10 +51682,10 @@
     </row>
     <row r="2171" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2171" s="3" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="C2171" s="3" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="D2171" s="3" t="s">
         <v>7</v>
@@ -51687,10 +51699,10 @@
     </row>
     <row r="2172" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2172" s="4" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C2172" s="4" t="s">
         <v>4239</v>
-      </c>
-      <c r="C2172" s="4" t="s">
-        <v>4238</v>
       </c>
       <c r="D2172" s="4" t="s">
         <v>7</v>
@@ -51699,15 +51711,15 @@
         <v>71</v>
       </c>
       <c r="F2172" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2173" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2173" s="3" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="C2173" s="3" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="D2173" s="3" t="s">
         <v>7</v>
@@ -51721,10 +51733,10 @@
     </row>
     <row r="2174" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2174" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="C2174" s="4" t="s">
         <v>4242</v>
-      </c>
-      <c r="C2174" s="4" t="s">
-        <v>4243</v>
       </c>
       <c r="D2174" s="4" t="s">
         <v>7</v>
@@ -51733,7 +51745,7 @@
         <v>71</v>
       </c>
       <c r="F2174" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2175" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51741,7 +51753,7 @@
         <v>4244</v>
       </c>
       <c r="C2175" s="3" t="s">
-        <v>4243</v>
+        <v>4245</v>
       </c>
       <c r="D2175" s="3" t="s">
         <v>7</v>
@@ -51750,15 +51762,15 @@
         <v>71</v>
       </c>
       <c r="F2175" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2176" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2176" s="4" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
       <c r="C2176" s="4" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="D2176" s="4" t="s">
         <v>7</v>
@@ -51767,15 +51779,15 @@
         <v>71</v>
       </c>
       <c r="F2176" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2177" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2177" s="3" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C2177" s="3" t="s">
         <v>4247</v>
-      </c>
-      <c r="C2177" s="3" t="s">
-        <v>4248</v>
       </c>
       <c r="D2177" s="3" t="s">
         <v>7</v>
@@ -51798,10 +51810,10 @@
         <v>7</v>
       </c>
       <c r="E2178" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2178" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2179" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51815,10 +51827,10 @@
         <v>7</v>
       </c>
       <c r="E2179" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F2179" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2180" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -51832,7 +51844,7 @@
         <v>7</v>
       </c>
       <c r="E2180" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F2180" s="4" t="s">
         <v>68</v>
@@ -51849,7 +51861,7 @@
         <v>7</v>
       </c>
       <c r="E2181" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F2181" s="3" t="s">
         <v>68</v>
@@ -51866,7 +51878,7 @@
         <v>7</v>
       </c>
       <c r="E2182" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F2182" s="4" t="s">
         <v>68</v>
@@ -51883,7 +51895,7 @@
         <v>7</v>
       </c>
       <c r="E2183" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F2183" s="3" t="s">
         <v>68</v>
@@ -51900,7 +51912,7 @@
         <v>7</v>
       </c>
       <c r="E2184" s="4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F2184" s="4" t="s">
         <v>68</v>
@@ -51917,7 +51929,7 @@
         <v>7</v>
       </c>
       <c r="E2185" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2185" s="3" t="s">
         <v>68</v>
@@ -51951,7 +51963,7 @@
         <v>7</v>
       </c>
       <c r="E2187" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2187" s="3" t="s">
         <v>68</v>
@@ -51985,7 +51997,7 @@
         <v>7</v>
       </c>
       <c r="E2189" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2189" s="3" t="s">
         <v>68</v>
@@ -52002,7 +52014,7 @@
         <v>7</v>
       </c>
       <c r="E2190" s="4" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F2190" s="4" t="s">
         <v>68</v>
@@ -52019,7 +52031,7 @@
         <v>7</v>
       </c>
       <c r="E2191" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F2191" s="3" t="s">
         <v>68</v>
@@ -52056,7 +52068,7 @@
         <v>134</v>
       </c>
       <c r="F2193" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2194" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52073,7 +52085,7 @@
         <v>134</v>
       </c>
       <c r="F2194" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2195" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52090,7 +52102,7 @@
         <v>134</v>
       </c>
       <c r="F2195" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2196" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52107,7 +52119,7 @@
         <v>134</v>
       </c>
       <c r="F2196" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2197" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52115,7 +52127,7 @@
         <v>4287</v>
       </c>
       <c r="C2197" s="3" t="s">
-        <v>4284</v>
+        <v>4288</v>
       </c>
       <c r="D2197" s="3" t="s">
         <v>7</v>
@@ -52129,36 +52141,36 @@
     </row>
     <row r="2198" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2198" s="4" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="C2198" s="4" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="D2198" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2198" s="4" t="s">
-        <v>1371</v>
+        <v>134</v>
       </c>
       <c r="F2198" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2199" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2199" s="3" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="C2199" s="3" t="s">
-        <v>4291</v>
+        <v>4288</v>
       </c>
       <c r="D2199" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2199" s="3" t="s">
-        <v>1371</v>
+        <v>134</v>
       </c>
       <c r="F2199" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2200" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52183,7 +52195,7 @@
         <v>4294</v>
       </c>
       <c r="C2201" s="3" t="s">
-        <v>4148</v>
+        <v>4295</v>
       </c>
       <c r="D2201" s="3" t="s">
         <v>7</v>
@@ -52197,36 +52209,36 @@
     </row>
     <row r="2202" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2202" s="4" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="C2202" s="4" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
       <c r="D2202" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2202" s="4" t="s">
-        <v>137</v>
+        <v>1371</v>
       </c>
       <c r="F2202" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2203" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2203" s="3" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="C2203" s="3" t="s">
-        <v>4298</v>
+        <v>4152</v>
       </c>
       <c r="D2203" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2203" s="3" t="s">
-        <v>24</v>
+        <v>1371</v>
       </c>
       <c r="F2203" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2204" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52240,7 +52252,7 @@
         <v>7</v>
       </c>
       <c r="E2204" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2204" s="4" t="s">
         <v>9</v>
@@ -52257,7 +52269,7 @@
         <v>7</v>
       </c>
       <c r="E2205" s="3" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="F2205" s="3" t="s">
         <v>9</v>
@@ -52274,7 +52286,7 @@
         <v>7</v>
       </c>
       <c r="E2206" s="4" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2206" s="4" t="s">
         <v>9</v>
@@ -52291,7 +52303,7 @@
         <v>7</v>
       </c>
       <c r="E2207" s="3" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2207" s="3" t="s">
         <v>9</v>
@@ -52407,10 +52419,10 @@
         <v>4320</v>
       </c>
       <c r="D2214" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2214" s="4" t="s">
-        <v>675</v>
+        <v>24</v>
       </c>
       <c r="F2214" s="4" t="s">
         <v>9</v>
@@ -52424,13 +52436,13 @@
         <v>4322</v>
       </c>
       <c r="D2215" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2215" s="3" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F2215" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2216" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52441,13 +52453,13 @@
         <v>4324</v>
       </c>
       <c r="D2216" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2216" s="4" t="s">
-        <v>134</v>
+        <v>675</v>
       </c>
       <c r="F2216" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2217" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52458,10 +52470,10 @@
         <v>4326</v>
       </c>
       <c r="D2217" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2217" s="3" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="F2217" s="3" t="s">
         <v>68</v>
@@ -52540,7 +52552,7 @@
         <v>4335</v>
       </c>
       <c r="C2222" s="4" t="s">
-        <v>581</v>
+        <v>4336</v>
       </c>
       <c r="D2222" s="4" t="s">
         <v>7</v>
@@ -52554,10 +52566,10 @@
     </row>
     <row r="2223" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2223" s="3" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
       <c r="C2223" s="3" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="D2223" s="3" t="s">
         <v>7</v>
@@ -52571,10 +52583,10 @@
     </row>
     <row r="2224" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2224" s="4" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="C2224" s="4" t="s">
-        <v>4339</v>
+        <v>581</v>
       </c>
       <c r="D2224" s="4" t="s">
         <v>7</v>
@@ -52693,7 +52705,7 @@
         <v>4352</v>
       </c>
       <c r="C2231" s="3" t="s">
-        <v>4347</v>
+        <v>4353</v>
       </c>
       <c r="D2231" s="3" t="s">
         <v>7</v>
@@ -52707,10 +52719,10 @@
     </row>
     <row r="2232" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2232" s="4" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="C2232" s="4" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="D2232" s="4" t="s">
         <v>7</v>
@@ -52724,10 +52736,10 @@
     </row>
     <row r="2233" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2233" s="3" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="C2233" s="3" t="s">
-        <v>4356</v>
+        <v>4351</v>
       </c>
       <c r="D2233" s="3" t="s">
         <v>7</v>
@@ -52812,7 +52824,7 @@
         <v>4365</v>
       </c>
       <c r="C2238" s="4" t="s">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="D2238" s="4" t="s">
         <v>7</v>
@@ -52826,10 +52838,10 @@
     </row>
     <row r="2239" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2239" s="3" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="C2239" s="3" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="D2239" s="3" t="s">
         <v>7</v>
@@ -52843,10 +52855,10 @@
     </row>
     <row r="2240" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2240" s="4" t="s">
+        <v>4369</v>
+      </c>
+      <c r="C2240" s="4" t="s">
         <v>4368</v>
-      </c>
-      <c r="C2240" s="4" t="s">
-        <v>4369</v>
       </c>
       <c r="D2240" s="4" t="s">
         <v>7</v>
@@ -52897,7 +52909,7 @@
         <v>4374</v>
       </c>
       <c r="C2243" s="3" t="s">
-        <v>2663</v>
+        <v>4375</v>
       </c>
       <c r="D2243" s="3" t="s">
         <v>7</v>
@@ -52911,10 +52923,10 @@
     </row>
     <row r="2244" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2244" s="4" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="C2244" s="4" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="D2244" s="4" t="s">
         <v>7</v>
@@ -52928,19 +52940,19 @@
     </row>
     <row r="2245" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2245" s="3" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="C2245" s="3" t="s">
-        <v>4378</v>
+        <v>2665</v>
       </c>
       <c r="D2245" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2245" s="3" t="s">
-        <v>2782</v>
+        <v>134</v>
       </c>
       <c r="F2245" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2246" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52954,10 +52966,10 @@
         <v>7</v>
       </c>
       <c r="E2246" s="4" t="s">
-        <v>2782</v>
+        <v>134</v>
       </c>
       <c r="F2246" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2247" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -52965,13 +52977,13 @@
         <v>4381</v>
       </c>
       <c r="C2247" s="3" t="s">
-        <v>2819</v>
+        <v>4382</v>
       </c>
       <c r="D2247" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2247" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2247" s="3" t="s">
         <v>7</v>
@@ -52979,16 +52991,16 @@
     </row>
     <row r="2248" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2248" s="4" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="C2248" s="4" t="s">
-        <v>2805</v>
+        <v>4384</v>
       </c>
       <c r="D2248" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2248" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2248" s="4" t="s">
         <v>7</v>
@@ -52996,16 +53008,16 @@
     </row>
     <row r="2249" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2249" s="3" t="s">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="C2249" s="3" t="s">
-        <v>4384</v>
+        <v>2821</v>
       </c>
       <c r="D2249" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2249" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2249" s="3" t="s">
         <v>7</v>
@@ -53013,16 +53025,16 @@
     </row>
     <row r="2250" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2250" s="4" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="C2250" s="4" t="s">
-        <v>2819</v>
+        <v>2807</v>
       </c>
       <c r="D2250" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2250" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2250" s="4" t="s">
         <v>7</v>
@@ -53030,16 +53042,16 @@
     </row>
     <row r="2251" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2251" s="3" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="C2251" s="3" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
       <c r="D2251" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2251" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2251" s="3" t="s">
         <v>7</v>
@@ -53047,16 +53059,16 @@
     </row>
     <row r="2252" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2252" s="4" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="C2252" s="4" t="s">
-        <v>4389</v>
+        <v>2821</v>
       </c>
       <c r="D2252" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2252" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2252" s="4" t="s">
         <v>7</v>
@@ -53067,13 +53079,13 @@
         <v>4390</v>
       </c>
       <c r="C2253" s="3" t="s">
-        <v>2825</v>
+        <v>4391</v>
       </c>
       <c r="D2253" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2253" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2253" s="3" t="s">
         <v>7</v>
@@ -53081,16 +53093,16 @@
     </row>
     <row r="2254" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2254" s="4" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="C2254" s="4" t="s">
-        <v>2825</v>
+        <v>4393</v>
       </c>
       <c r="D2254" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2254" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2254" s="4" t="s">
         <v>7</v>
@@ -53098,16 +53110,16 @@
     </row>
     <row r="2255" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2255" s="3" t="s">
-        <v>4392</v>
+        <v>4394</v>
       </c>
       <c r="C2255" s="3" t="s">
-        <v>2876</v>
+        <v>2827</v>
       </c>
       <c r="D2255" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2255" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2255" s="3" t="s">
         <v>7</v>
@@ -53115,16 +53127,16 @@
     </row>
     <row r="2256" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2256" s="4" t="s">
-        <v>4393</v>
+        <v>4395</v>
       </c>
       <c r="C2256" s="4" t="s">
-        <v>2892</v>
+        <v>2827</v>
       </c>
       <c r="D2256" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2256" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2256" s="4" t="s">
         <v>7</v>
@@ -53132,16 +53144,16 @@
     </row>
     <row r="2257" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2257" s="3" t="s">
-        <v>4394</v>
+        <v>4396</v>
       </c>
       <c r="C2257" s="3" t="s">
-        <v>2896</v>
+        <v>2878</v>
       </c>
       <c r="D2257" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2257" s="3" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="F2257" s="3" t="s">
         <v>7</v>
@@ -53149,16 +53161,16 @@
     </row>
     <row r="2258" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2258" s="4" t="s">
-        <v>4395</v>
+        <v>4397</v>
       </c>
       <c r="C2258" s="4" t="s">
-        <v>4396</v>
+        <v>2894</v>
       </c>
       <c r="D2258" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E2258" s="4" t="s">
-        <v>1028</v>
+        <v>2784</v>
       </c>
       <c r="F2258" s="4" t="s">
         <v>7</v>
@@ -53166,16 +53178,16 @@
     </row>
     <row r="2259" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2259" s="3" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="C2259" s="3" t="s">
-        <v>4398</v>
+        <v>2898</v>
       </c>
       <c r="D2259" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E2259" s="3" t="s">
-        <v>1028</v>
+        <v>2784</v>
       </c>
       <c r="F2259" s="3" t="s">
         <v>7</v>
@@ -53192,10 +53204,10 @@
         <v>68</v>
       </c>
       <c r="E2260" s="4" t="s">
-        <v>193</v>
+        <v>1028</v>
       </c>
       <c r="F2260" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2261" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53223,13 +53235,13 @@
         <v>4404</v>
       </c>
       <c r="D2262" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2262" s="4" t="s">
-        <v>1374</v>
+        <v>193</v>
       </c>
       <c r="F2262" s="4" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2263" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53240,10 +53252,10 @@
         <v>4406</v>
       </c>
       <c r="D2263" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="E2263" s="3" t="s">
-        <v>1374</v>
+        <v>1028</v>
       </c>
       <c r="F2263" s="3" t="s">
         <v>7</v>
@@ -53362,7 +53374,7 @@
         <v>7</v>
       </c>
       <c r="E2270" s="4" t="s">
-        <v>55</v>
+        <v>1374</v>
       </c>
       <c r="F2270" s="4" t="s">
         <v>7</v>
@@ -53379,7 +53391,7 @@
         <v>7</v>
       </c>
       <c r="E2271" s="3" t="s">
-        <v>55</v>
+        <v>1374</v>
       </c>
       <c r="F2271" s="3" t="s">
         <v>7</v>
@@ -53492,7 +53504,7 @@
         <v>4435</v>
       </c>
       <c r="C2278" s="4" t="s">
-        <v>4175</v>
+        <v>4436</v>
       </c>
       <c r="D2278" s="4" t="s">
         <v>7</v>
@@ -53506,10 +53518,10 @@
     </row>
     <row r="2279" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2279" s="3" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="C2279" s="3" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="D2279" s="3" t="s">
         <v>7</v>
@@ -53523,10 +53535,10 @@
     </row>
     <row r="2280" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2280" s="4" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
       <c r="C2280" s="4" t="s">
-        <v>4439</v>
+        <v>4179</v>
       </c>
       <c r="D2280" s="4" t="s">
         <v>7</v>
@@ -53583,7 +53595,7 @@
         <v>7</v>
       </c>
       <c r="E2283" s="3" t="s">
-        <v>1374</v>
+        <v>55</v>
       </c>
       <c r="F2283" s="3" t="s">
         <v>7</v>
@@ -53600,7 +53612,7 @@
         <v>7</v>
       </c>
       <c r="E2284" s="4" t="s">
-        <v>1374</v>
+        <v>55</v>
       </c>
       <c r="F2284" s="4" t="s">
         <v>7</v>
@@ -53651,10 +53663,10 @@
         <v>7</v>
       </c>
       <c r="E2287" s="3" t="s">
-        <v>67</v>
+        <v>1374</v>
       </c>
       <c r="F2287" s="3" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2288" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53668,10 +53680,10 @@
         <v>7</v>
       </c>
       <c r="E2288" s="4" t="s">
-        <v>67</v>
+        <v>1374</v>
       </c>
       <c r="F2288" s="4" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2289" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -53770,7 +53782,7 @@
         <v>7</v>
       </c>
       <c r="E2294" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2294" s="4" t="s">
         <v>68</v>
@@ -53787,7 +53799,7 @@
         <v>7</v>
       </c>
       <c r="E2295" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2295" s="3" t="s">
         <v>68</v>
@@ -53917,7 +53929,7 @@
         <v>4484</v>
       </c>
       <c r="C2303" s="3" t="s">
-        <v>1861</v>
+        <v>4485</v>
       </c>
       <c r="D2303" s="3" t="s">
         <v>7</v>
@@ -53931,10 +53943,10 @@
     </row>
     <row r="2304" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2304" s="4" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
       <c r="C2304" s="4" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="D2304" s="4" t="s">
         <v>7</v>
@@ -53948,10 +53960,10 @@
     </row>
     <row r="2305" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2305" s="3" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="C2305" s="3" t="s">
-        <v>4488</v>
+        <v>1861</v>
       </c>
       <c r="D2305" s="3" t="s">
         <v>7</v>
@@ -54070,7 +54082,7 @@
         <v>4501</v>
       </c>
       <c r="C2312" s="4" t="s">
-        <v>1810</v>
+        <v>4502</v>
       </c>
       <c r="D2312" s="4" t="s">
         <v>7</v>
@@ -54084,16 +54096,16 @@
     </row>
     <row r="2313" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2313" s="3" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="C2313" s="3" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="D2313" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2313" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2313" s="3" t="s">
         <v>68</v>
@@ -54101,10 +54113,10 @@
     </row>
     <row r="2314" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2314" s="4" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="C2314" s="4" t="s">
-        <v>4241</v>
+        <v>1810</v>
       </c>
       <c r="D2314" s="4" t="s">
         <v>7</v>
@@ -54118,16 +54130,16 @@
     </row>
     <row r="2315" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2315" s="3" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="C2315" s="3" t="s">
-        <v>4246</v>
+        <v>4507</v>
       </c>
       <c r="D2315" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2315" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2315" s="3" t="s">
         <v>68</v>
@@ -54135,10 +54147,10 @@
     </row>
     <row r="2316" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2316" s="4" t="s">
-        <v>4506</v>
+        <v>4508</v>
       </c>
       <c r="C2316" s="4" t="s">
-        <v>4507</v>
+        <v>4245</v>
       </c>
       <c r="D2316" s="4" t="s">
         <v>7</v>
@@ -54152,10 +54164,10 @@
     </row>
     <row r="2317" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2317" s="3" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
       <c r="C2317" s="3" t="s">
-        <v>1820</v>
+        <v>4250</v>
       </c>
       <c r="D2317" s="3" t="s">
         <v>7</v>
@@ -54169,10 +54181,10 @@
     </row>
     <row r="2318" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2318" s="4" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="C2318" s="4" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="D2318" s="4" t="s">
         <v>7</v>
@@ -54186,10 +54198,10 @@
     </row>
     <row r="2319" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2319" s="3" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="C2319" s="3" t="s">
-        <v>4512</v>
+        <v>1820</v>
       </c>
       <c r="D2319" s="3" t="s">
         <v>7</v>
@@ -54229,7 +54241,7 @@
         <v>7</v>
       </c>
       <c r="E2321" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2321" s="3" t="s">
         <v>68</v>
@@ -54246,7 +54258,7 @@
         <v>7</v>
       </c>
       <c r="E2322" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2322" s="4" t="s">
         <v>68</v>
@@ -54297,7 +54309,7 @@
         <v>7</v>
       </c>
       <c r="E2325" s="3" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F2325" s="3" t="s">
         <v>68</v>
@@ -54314,7 +54326,7 @@
         <v>7</v>
       </c>
       <c r="E2326" s="4" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F2326" s="4" t="s">
         <v>68</v>
@@ -54399,7 +54411,7 @@
         <v>7</v>
       </c>
       <c r="E2331" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2331" s="3" t="s">
         <v>68</v>
@@ -54416,7 +54428,7 @@
         <v>7</v>
       </c>
       <c r="E2332" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2332" s="4" t="s">
         <v>68</v>
@@ -54495,7 +54507,7 @@
         <v>4547</v>
       </c>
       <c r="C2337" s="3" t="s">
-        <v>1989</v>
+        <v>4548</v>
       </c>
       <c r="D2337" s="3" t="s">
         <v>7</v>
@@ -54509,10 +54521,10 @@
     </row>
     <row r="2338" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2338" s="4" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="C2338" s="4" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="D2338" s="4" t="s">
         <v>7</v>
@@ -54526,10 +54538,10 @@
     </row>
     <row r="2339" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2339" s="3" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="C2339" s="3" t="s">
-        <v>4551</v>
+        <v>1989</v>
       </c>
       <c r="D2339" s="3" t="s">
         <v>7</v>
@@ -54563,7 +54575,7 @@
         <v>4554</v>
       </c>
       <c r="C2341" s="3" t="s">
-        <v>2002</v>
+        <v>4555</v>
       </c>
       <c r="D2341" s="3" t="s">
         <v>7</v>
@@ -54577,10 +54589,10 @@
     </row>
     <row r="2342" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2342" s="4" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="C2342" s="4" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="D2342" s="4" t="s">
         <v>7</v>
@@ -54594,10 +54606,10 @@
     </row>
     <row r="2343" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2343" s="3" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="C2343" s="3" t="s">
-        <v>4558</v>
+        <v>2002</v>
       </c>
       <c r="D2343" s="3" t="s">
         <v>7</v>
@@ -54716,7 +54728,7 @@
         <v>4571</v>
       </c>
       <c r="C2350" s="4" t="s">
-        <v>2022</v>
+        <v>4572</v>
       </c>
       <c r="D2350" s="4" t="s">
         <v>7</v>
@@ -54730,16 +54742,16 @@
     </row>
     <row r="2351" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2351" s="3" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="C2351" s="3" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="D2351" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2351" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2351" s="3" t="s">
         <v>68</v>
@@ -54747,10 +54759,10 @@
     </row>
     <row r="2352" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2352" s="4" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="C2352" s="4" t="s">
-        <v>4575</v>
+        <v>2022</v>
       </c>
       <c r="D2352" s="4" t="s">
         <v>7</v>
@@ -54773,7 +54785,7 @@
         <v>7</v>
       </c>
       <c r="E2353" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2353" s="3" t="s">
         <v>68</v>
@@ -54801,7 +54813,7 @@
         <v>4580</v>
       </c>
       <c r="C2355" s="3" t="s">
-        <v>2074</v>
+        <v>4581</v>
       </c>
       <c r="D2355" s="3" t="s">
         <v>7</v>
@@ -54815,10 +54827,10 @@
     </row>
     <row r="2356" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2356" s="4" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="C2356" s="4" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="D2356" s="4" t="s">
         <v>7</v>
@@ -54832,10 +54844,10 @@
     </row>
     <row r="2357" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2357" s="3" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="C2357" s="3" t="s">
-        <v>4584</v>
+        <v>2074</v>
       </c>
       <c r="D2357" s="3" t="s">
         <v>7</v>
@@ -54943,7 +54955,7 @@
         <v>7</v>
       </c>
       <c r="E2363" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2363" s="3" t="s">
         <v>68</v>
@@ -54960,7 +54972,7 @@
         <v>7</v>
       </c>
       <c r="E2364" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F2364" s="4" t="s">
         <v>68</v>
@@ -55011,41 +55023,41 @@
         <v>7</v>
       </c>
       <c r="E2367" s="3" t="s">
-        <v>4605</v>
+        <v>104</v>
       </c>
       <c r="F2367" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2368" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2368" s="4" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C2368" s="4" t="s">
         <v>4606</v>
       </c>
-      <c r="C2368" s="4" t="s">
-        <v>4607</v>
-      </c>
       <c r="D2368" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2368" s="4" t="s">
-        <v>4605</v>
+        <v>104</v>
       </c>
       <c r="F2368" s="4" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2369" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2369" s="3" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C2369" s="3" t="s">
         <v>4608</v>
       </c>
-      <c r="C2369" s="3" t="s">
+      <c r="D2369" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2369" s="3" t="s">
         <v>4609</v>
-      </c>
-      <c r="D2369" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2369" s="3" t="s">
-        <v>4605</v>
       </c>
       <c r="F2369" s="3" t="s">
         <v>9</v>
@@ -55062,7 +55074,7 @@
         <v>7</v>
       </c>
       <c r="E2370" s="4" t="s">
-        <v>4605</v>
+        <v>4609</v>
       </c>
       <c r="F2370" s="4" t="s">
         <v>9</v>
@@ -55079,7 +55091,7 @@
         <v>7</v>
       </c>
       <c r="E2371" s="3" t="s">
-        <v>4605</v>
+        <v>4609</v>
       </c>
       <c r="F2371" s="3" t="s">
         <v>9</v>
@@ -55096,7 +55108,7 @@
         <v>7</v>
       </c>
       <c r="E2372" s="4" t="s">
-        <v>4605</v>
+        <v>4609</v>
       </c>
       <c r="F2372" s="4" t="s">
         <v>9</v>
@@ -55113,7 +55125,7 @@
         <v>7</v>
       </c>
       <c r="E2373" s="3" t="s">
-        <v>4605</v>
+        <v>4609</v>
       </c>
       <c r="F2373" s="3" t="s">
         <v>9</v>
@@ -55130,7 +55142,7 @@
         <v>7</v>
       </c>
       <c r="E2374" s="4" t="s">
-        <v>140</v>
+        <v>4609</v>
       </c>
       <c r="F2374" s="4" t="s">
         <v>9</v>
@@ -55147,7 +55159,7 @@
         <v>7</v>
       </c>
       <c r="E2375" s="3" t="s">
-        <v>140</v>
+        <v>4609</v>
       </c>
       <c r="F2375" s="3" t="s">
         <v>9</v>
@@ -55232,7 +55244,7 @@
         <v>7</v>
       </c>
       <c r="E2380" s="4" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2380" s="4" t="s">
         <v>9</v>
@@ -55249,7 +55261,7 @@
         <v>7</v>
       </c>
       <c r="E2381" s="3" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="F2381" s="3" t="s">
         <v>9</v>
@@ -55549,7 +55561,7 @@
         <v>4668</v>
       </c>
       <c r="C2399" s="3" t="s">
-        <v>2247</v>
+        <v>4669</v>
       </c>
       <c r="D2399" s="3" t="s">
         <v>7</v>
@@ -55563,10 +55575,10 @@
     </row>
     <row r="2400" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2400" s="4" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="C2400" s="4" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="D2400" s="4" t="s">
         <v>7</v>
@@ -55580,10 +55592,10 @@
     </row>
     <row r="2401" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2401" s="3" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
       <c r="C2401" s="3" t="s">
-        <v>4672</v>
+        <v>2247</v>
       </c>
       <c r="D2401" s="3" t="s">
         <v>7</v>
@@ -55617,7 +55629,7 @@
         <v>4675</v>
       </c>
       <c r="C2403" s="3" t="s">
-        <v>2273</v>
+        <v>4676</v>
       </c>
       <c r="D2403" s="3" t="s">
         <v>7</v>
@@ -55631,10 +55643,10 @@
     </row>
     <row r="2404" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2404" s="4" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="C2404" s="4" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="D2404" s="4" t="s">
         <v>7</v>
@@ -55648,10 +55660,10 @@
     </row>
     <row r="2405" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2405" s="3" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="C2405" s="3" t="s">
-        <v>4679</v>
+        <v>2273</v>
       </c>
       <c r="D2405" s="3" t="s">
         <v>7</v>
@@ -55719,7 +55731,7 @@
         <v>4686</v>
       </c>
       <c r="C2409" s="3" t="s">
-        <v>2312</v>
+        <v>4687</v>
       </c>
       <c r="D2409" s="3" t="s">
         <v>7</v>
@@ -55733,16 +55745,16 @@
     </row>
     <row r="2410" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2410" s="4" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="C2410" s="4" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
       <c r="D2410" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2410" s="4" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="F2410" s="4" t="s">
         <v>9</v>
@@ -55750,16 +55762,16 @@
     </row>
     <row r="2411" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2411" s="3" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="C2411" s="3" t="s">
-        <v>4690</v>
+        <v>2312</v>
       </c>
       <c r="D2411" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2411" s="3" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="F2411" s="3" t="s">
         <v>9</v>
@@ -55793,41 +55805,41 @@
         <v>7</v>
       </c>
       <c r="E2413" s="3" t="s">
-        <v>4695</v>
+        <v>140</v>
       </c>
       <c r="F2413" s="3" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2414" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2414" s="4" t="s">
+        <v>4695</v>
+      </c>
+      <c r="C2414" s="4" t="s">
         <v>4696</v>
       </c>
-      <c r="C2414" s="4" t="s">
-        <v>4697</v>
-      </c>
       <c r="D2414" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2414" s="4" t="s">
-        <v>4695</v>
+        <v>140</v>
       </c>
       <c r="F2414" s="4" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2415" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B2415" s="3" t="s">
+        <v>4697</v>
+      </c>
+      <c r="C2415" s="3" t="s">
         <v>4698</v>
       </c>
-      <c r="C2415" s="3" t="s">
+      <c r="D2415" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2415" s="3" t="s">
         <v>4699</v>
-      </c>
-      <c r="D2415" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2415" s="3" t="s">
-        <v>4695</v>
       </c>
       <c r="F2415" s="3" t="s">
         <v>68</v>
@@ -55844,7 +55856,7 @@
         <v>7</v>
       </c>
       <c r="E2416" s="4" t="s">
-        <v>4695</v>
+        <v>4699</v>
       </c>
       <c r="F2416" s="4" t="s">
         <v>68</v>
@@ -55861,7 +55873,7 @@
         <v>7</v>
       </c>
       <c r="E2417" s="3" t="s">
-        <v>4695</v>
+        <v>4699</v>
       </c>
       <c r="F2417" s="3" t="s">
         <v>68</v>
@@ -55878,7 +55890,7 @@
         <v>7</v>
       </c>
       <c r="E2418" s="4" t="s">
-        <v>4695</v>
+        <v>4699</v>
       </c>
       <c r="F2418" s="4" t="s">
         <v>68</v>
@@ -55895,7 +55907,7 @@
         <v>7</v>
       </c>
       <c r="E2419" s="3" t="s">
-        <v>4695</v>
+        <v>4699</v>
       </c>
       <c r="F2419" s="3" t="s">
         <v>68</v>
@@ -55912,7 +55924,7 @@
         <v>7</v>
       </c>
       <c r="E2420" s="4" t="s">
-        <v>4695</v>
+        <v>4699</v>
       </c>
       <c r="F2420" s="4" t="s">
         <v>68</v>
@@ -55929,10 +55941,10 @@
         <v>7</v>
       </c>
       <c r="E2421" s="3" t="s">
-        <v>1028</v>
+        <v>4699</v>
       </c>
       <c r="F2421" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2422" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -55943,16 +55955,50 @@
         <v>4713</v>
       </c>
       <c r="D2422" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2422" s="4" t="s">
+        <v>4699</v>
+      </c>
+      <c r="F2422" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2423" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B2423" s="3" t="s">
+        <v>4714</v>
+      </c>
+      <c r="C2423" s="3" t="s">
+        <v>4715</v>
+      </c>
+      <c r="D2423" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2423" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F2423" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2424" s="1" customFormat="1" ht="19.7321" customHeight="1">
+      <c r="B2424" s="4" t="s">
+        <v>4716</v>
+      </c>
+      <c r="C2424" s="4" t="s">
+        <v>4717</v>
+      </c>
+      <c r="D2424" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="E2422" s="4" t="s">
+      <c r="E2424" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F2422" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2423" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+      <c r="F2424" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2425" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -55972,10 +56018,10 @@
     <row r="1" s="1" customFormat="1" ht="16.5323" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>4714</v>
+        <v>4718</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4715</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -55983,7 +56029,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4716</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -55991,7 +56037,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4717</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
@@ -55999,199 +56045,199 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4718</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>4719</v>
+        <v>4723</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4720</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>4721</v>
+        <v>4725</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4722</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>4723</v>
+        <v>4727</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>4724</v>
+        <v>4728</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4725</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>4726</v>
+        <v>4730</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4727</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>4728</v>
+        <v>4732</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4729</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>4730</v>
+        <v>4734</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4731</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>4732</v>
+        <v>4736</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4733</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>4734</v>
+        <v>4738</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4735</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>4736</v>
+        <v>4740</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4737</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>4738</v>
+        <v>4742</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4739</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>4740</v>
+        <v>4744</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4741</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>4742</v>
+        <v>4746</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4743</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>4744</v>
+        <v>4748</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4745</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>4746</v>
+        <v>4750</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4747</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>4748</v>
+        <v>4752</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4749</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>4750</v>
+        <v>4754</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4751</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>4752</v>
+        <v>4756</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4753</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>4754</v>
+        <v>4758</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4755</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>4756</v>
+        <v>4760</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4757</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>4758</v>
+        <v>4762</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4759</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>4760</v>
+        <v>4764</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4761</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>4762</v>
+        <v>4766</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4753</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>4763</v>
+        <v>4767</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4755</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
@@ -56214,23 +56260,23 @@
     <row r="1" s="1" customFormat="1" ht="55.9965" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="23.9985" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>4764</v>
+        <v>4768</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4765</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>4766</v>
+        <v>4770</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4767</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>4768</v>
+        <v>4772</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1359</v>
@@ -56238,47 +56284,47 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>4769</v>
+        <v>4773</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4770</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>4771</v>
+        <v>4775</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4772</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>4773</v>
+        <v>4777</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4722</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>4774</v>
+        <v>4778</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>4775</v>
+        <v>4779</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4725</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>4776</v>
+        <v>4780</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1374</v>
@@ -56286,31 +56332,31 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>4777</v>
+        <v>4781</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4778</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>4779</v>
+        <v>4783</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4780</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>4781</v>
+        <v>4785</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4782</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>4783</v>
+        <v>4787</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>362</v>
@@ -56318,55 +56364,55 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>4784</v>
+        <v>4788</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4785</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>4786</v>
+        <v>4790</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4787</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B17" s="3" t="s">
-        <v>4788</v>
+        <v>4792</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4789</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>4790</v>
+        <v>4794</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4791</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B19" s="3" t="s">
-        <v>4792</v>
+        <v>4796</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4793</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>4794</v>
+        <v>4798</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4795</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B21" s="3" t="s">
-        <v>4796</v>
+        <v>4800</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>67</v>
@@ -56374,23 +56420,23 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>4797</v>
+        <v>4801</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4798</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B23" s="3" t="s">
-        <v>4799</v>
+        <v>4803</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4800</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>4801</v>
+        <v>4805</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>104</v>
@@ -56398,15 +56444,15 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B25" s="3" t="s">
-        <v>4802</v>
+        <v>4806</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4803</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>4804</v>
+        <v>4808</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>558</v>
@@ -56414,39 +56460,39 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>4805</v>
+        <v>4809</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4806</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>4807</v>
+        <v>4811</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4808</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B29" s="3" t="s">
-        <v>4809</v>
+        <v>4813</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4810</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B30" s="4" t="s">
-        <v>4811</v>
+        <v>4815</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4812</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B31" s="3" t="s">
-        <v>4813</v>
+        <v>4817</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>131</v>
@@ -56454,15 +56500,15 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B32" s="4" t="s">
-        <v>4814</v>
+        <v>4818</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4815</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B33" s="3" t="s">
-        <v>4816</v>
+        <v>4820</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
@@ -56470,7 +56516,7 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>4817</v>
+        <v>4821</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>140</v>
@@ -56478,298 +56524,298 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B35" s="3" t="s">
-        <v>4818</v>
+        <v>4822</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4819</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B36" s="4" t="s">
-        <v>4820</v>
+        <v>4824</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4821</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B37" s="3" t="s">
-        <v>4822</v>
+        <v>4826</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4823</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B38" s="4" t="s">
-        <v>4824</v>
+        <v>4828</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4825</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>4826</v>
+        <v>4830</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>4827</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B40" s="4" t="s">
-        <v>4828</v>
+        <v>4832</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4829</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B41" s="3" t="s">
-        <v>4830</v>
+        <v>4834</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>4831</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B42" s="4" t="s">
-        <v>4832</v>
+        <v>4836</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>4833</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B43" s="3" t="s">
-        <v>4834</v>
+        <v>4838</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>4835</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B44" s="4" t="s">
-        <v>4836</v>
+        <v>4840</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4837</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B45" s="3" t="s">
-        <v>4838</v>
+        <v>4842</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>4839</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B46" s="4" t="s">
-        <v>4840</v>
+        <v>4844</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4747</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B47" s="3" t="s">
-        <v>4841</v>
+        <v>4845</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>4842</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>4843</v>
+        <v>4847</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4842</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B49" s="3" t="s">
-        <v>4844</v>
+        <v>4848</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>4747</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B50" s="4" t="s">
-        <v>4845</v>
+        <v>4849</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4846</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B51" s="3" t="s">
-        <v>4847</v>
+        <v>4851</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>4848</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B52" s="4" t="s">
-        <v>4849</v>
+        <v>4853</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4850</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B53" s="3" t="s">
-        <v>4851</v>
+        <v>4855</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>4753</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B54" s="4" t="s">
-        <v>4852</v>
+        <v>4856</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>4755</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B55" s="3" t="s">
-        <v>4853</v>
+        <v>4857</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>4854</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>4855</v>
+        <v>4859</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4856</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B57" s="3" t="s">
-        <v>4857</v>
+        <v>4861</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>4858</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B58" s="4" t="s">
-        <v>4859</v>
+        <v>4863</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4860</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B59" s="3" t="s">
-        <v>4861</v>
+        <v>4865</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>4862</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B60" s="4" t="s">
-        <v>4863</v>
+        <v>4867</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4864</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B61" s="3" t="s">
-        <v>4865</v>
+        <v>4869</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>4866</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B62" s="4" t="s">
-        <v>4867</v>
+        <v>4871</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4868</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B63" s="3" t="s">
-        <v>4869</v>
+        <v>4873</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>4870</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B64" s="4" t="s">
-        <v>4871</v>
+        <v>4875</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4872</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B65" s="3" t="s">
-        <v>4873</v>
+        <v>4877</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>4874</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B66" s="4" t="s">
-        <v>4875</v>
+        <v>4879</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4876</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B67" s="3" t="s">
-        <v>4877</v>
+        <v>4881</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>4878</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B68" s="4" t="s">
-        <v>4879</v>
+        <v>4883</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4880</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B69" s="3" t="s">
-        <v>4881</v>
+        <v>4885</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>4882</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B70" s="4" t="s">
-        <v>4883</v>
+        <v>4887</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>4884</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" ht="19.7321" customHeight="1">
       <c r="B71" s="3" t="s">
-        <v>4885</v>
+        <v>4889</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>4886</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" ht="11.1993" customHeight="1">
